--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13017422.51</v>
+        <v>32204884.3</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>448876.64</v>
+        <v>631468.3199999999</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>890548.12</v>
+        <v>874542.66</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>300610.27</v>
+        <v>300715.6</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>943592.29</v>
+        <v>943614.87</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>697407.49</v>
+        <v>729321.97</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69514.81</v>
+        <v>73485.82000000001</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1568829.52</v>
+        <v>1569602.31</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>607857.08</v>
+        <v>607784.88</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1004669.19</v>
+        <v>1003064.13</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>714151.23</v>
+        <v>712541.92</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434606.17</v>
+        <v>419613.79</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>725065.84</v>
+        <v>724844.25</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>362556.78</v>
+        <v>362617.08</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183155.08</v>
+        <v>1183133.04</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>256255.07</v>
+        <v>256078.16</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>582665.59</v>
+        <v>564028.16</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>618328.54</v>
+        <v>604719.78</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>250621.39</v>
+        <v>250496.9</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>372054.98</v>
+        <v>372058.87</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183821.94</v>
+        <v>183826.27</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115281.35</v>
+        <v>123661.88</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168547.95</v>
+        <v>168568.67</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185653.02</v>
+        <v>158628.47</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>280207.13</v>
+        <v>330965.4</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>116283.32</v>
+        <v>116321.22</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40381.11</v>
+        <v>40411.07</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>125899</v>
+        <v>226191.2</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>92464.78</v>
+        <v>92494.75</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13255.75</v>
+        <v>13247.75</v>
       </c>
     </row>
     <row r="32">
@@ -747,7 +747,227 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>113137.72</v>
+        <v>113062.58</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>483744.55</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>164304.72</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>6904.06</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6254.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>845767.61</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1169383.52</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>108970.77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>126871.44</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>792082.5699999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>16522.01</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2448991.8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>318828.27</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>147298.74</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>14877.4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>224613.37</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>8032.78</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2959546.21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>20704.09</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>13247.75</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2802559.88</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2704409.25</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3701325.26</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -833,7 +833,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B41" t="n">

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,278 +436,362 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32204884.3</v>
+        <v>331102.18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>365309.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>631468.3199999999</v>
+        <v>846317.17</v>
+      </c>
+      <c r="C3" t="n">
+        <v>819184.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>874542.66</v>
+        <v>123264.15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>123274.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>300715.6</v>
+        <v>168614.24</v>
+      </c>
+      <c r="C5" t="n">
+        <v>178433.93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>943614.87</v>
+        <v>289411.52</v>
+      </c>
+      <c r="C6" t="n">
+        <v>289342.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>729321.97</v>
+        <v>943607.79</v>
+      </c>
+      <c r="C7" t="n">
+        <v>943595.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73485.82000000001</v>
+        <v>16532.01</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16532.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1569602.31</v>
+        <v>2449861.68</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2450230.98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>607784.88</v>
+        <v>40391.37</v>
+      </c>
+      <c r="C10" t="n">
+        <v>39159.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1003064.13</v>
+        <v>8029.04</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8033.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>712541.92</v>
+        <v>14880.99</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14883.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>419613.79</v>
+        <v>717293.3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>628981.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>724844.25</v>
-      </c>
+        <v>87771.03999999999</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>362617.08</v>
+        <v>483810.19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>491519.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183133.04</v>
+        <v>2936448.37</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2902240.16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>256078.16</v>
+        <v>1569893.09</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1537135.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>564028.16</v>
+        <v>607754.38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>607563.26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>604719.78</v>
+        <v>6255.44</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6248.52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>250496.9</v>
+        <v>845868.1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>845439.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>372058.87</v>
+        <v>1168780.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1169260.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183826.27</v>
+        <v>164236.16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>164274.08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>123661.88</v>
+        <v>318781.31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>318428.81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168568.67</v>
+        <v>6908.63</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6907.31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>158628.47</v>
+        <v>599978.73</v>
+      </c>
+      <c r="C25" t="n">
+        <v>647904.5699999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>330965.4</v>
+        <v>598666.11</v>
+      </c>
+      <c r="C26" t="n">
+        <v>638404.61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>116321.22</v>
+        <v>1018549.43</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1055118.95</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40411.07</v>
+        <v>695074.91</v>
+      </c>
+      <c r="C28" t="n">
+        <v>694045.97</v>
       </c>
     </row>
     <row r="29">
@@ -717,257 +801,333 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>226191.2</v>
+        <v>298061.13</v>
+      </c>
+      <c r="C29" t="n">
+        <v>298166.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>92494.75</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>3776352.36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13247.75</v>
+        <v>92423.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>92432.95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>113062.58</v>
+        <v>20711.3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>20703.83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>483744.55</v>
+        <v>404674.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>413382.91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164304.72</v>
+        <v>729640.64</v>
+      </c>
+      <c r="C34" t="n">
+        <v>739484.97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6904.06</v>
+        <v>130501.98</v>
+      </c>
+      <c r="C35" t="n">
+        <v>126595.33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6254.8</v>
+        <v>13246.41</v>
+      </c>
+      <c r="C36" t="n">
+        <v>18153.67</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>845767.61</v>
+        <v>13246.41</v>
+      </c>
+      <c r="C37" t="n">
+        <v>18153.67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1169383.52</v>
+        <v>109049.46</v>
+      </c>
+      <c r="C38" t="n">
+        <v>108967.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>108970.77</v>
+        <v>126899.18</v>
+      </c>
+      <c r="C39" t="n">
+        <v>126857.86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126871.44</v>
+        <v>113105.31</v>
+      </c>
+      <c r="C40" t="n">
+        <v>113087.21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>792082.5699999999</v>
+        <v>250406.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>253467.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16522.01</v>
+        <v>371749.17</v>
+      </c>
+      <c r="C42" t="n">
+        <v>371937.45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2448991.8</v>
+        <v>158579.17</v>
+      </c>
+      <c r="C43" t="n">
+        <v>166670.66</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>318828.27</v>
+        <v>362462.63</v>
+      </c>
+      <c r="C44" t="n">
+        <v>362622.93</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>147298.74</v>
+        <v>256181.59</v>
+      </c>
+      <c r="C45" t="n">
+        <v>256133.99</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14877.4</v>
+        <v>1183672.94</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1247721.79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>224613.37</v>
+        <v>2797055.48</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2797333.67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>8032.78</v>
+        <v>2705185.73</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3035007.23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2959546.21</v>
+        <v>792057.37</v>
+      </c>
+      <c r="C49" t="n">
+        <v>791305.73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>20704.09</v>
+        <v>282780.02</v>
+      </c>
+      <c r="C50" t="n">
+        <v>265311.28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>13247.75</v>
+        <v>179165.87</v>
+      </c>
+      <c r="C51" t="n">
+        <v>179215.94</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2802559.88</v>
+        <v>103565.13</v>
+      </c>
+      <c r="C52" t="n">
+        <v>103625.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2704409.25</v>
+        <v>571050.0600000001</v>
+      </c>
+      <c r="C53" t="n">
+        <v>652882.91</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3701325.26</v>
+        <v>28552502.95</v>
+      </c>
+      <c r="C54" t="n">
+        <v>32644145.68</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,686 +443,561 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>331102.18</v>
-      </c>
-      <c r="C2" t="n">
-        <v>365309.07</v>
+        <v>33672295.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846317.17</v>
-      </c>
-      <c r="C3" t="n">
-        <v>819184.9</v>
+        <v>623561.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123264.15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>123274.27</v>
+        <v>365309.07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>168614.24</v>
-      </c>
-      <c r="C5" t="n">
-        <v>178433.93</v>
+        <v>819184.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>289411.52</v>
-      </c>
-      <c r="C6" t="n">
-        <v>289342.64</v>
+        <v>123274.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>943607.79</v>
-      </c>
-      <c r="C7" t="n">
-        <v>943595.25</v>
+        <v>178433.93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16532.01</v>
-      </c>
-      <c r="C8" t="n">
-        <v>16532.89</v>
+        <v>289342.64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2449861.68</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2450230.98</v>
+        <v>123.92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40391.37</v>
-      </c>
-      <c r="C10" t="n">
-        <v>39159.76</v>
+        <v>943595.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8029.04</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8033.56</v>
+        <v>625408.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14880.99</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14883.9</v>
+        <v>311282.15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>717293.3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>628981.3</v>
+        <v>16532.89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87771.03999999999</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>2450230.98</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>483810.19</v>
-      </c>
-      <c r="C15" t="n">
-        <v>491519.94</v>
+        <v>39159.76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2936448.37</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2902240.16</v>
+        <v>8033.56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1569893.09</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1537135.72</v>
+        <v>14883.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>607754.38</v>
-      </c>
-      <c r="C18" t="n">
-        <v>607563.26</v>
+        <v>628981.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6255.44</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6248.52</v>
+        <v>91964.45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>845868.1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>845439.2</v>
+        <v>491519.94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1168780.8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1169260.18</v>
+        <v>2902240.16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164236.16</v>
-      </c>
-      <c r="C22" t="n">
-        <v>164274.08</v>
+        <v>17525.18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>318781.31</v>
-      </c>
-      <c r="C23" t="n">
-        <v>318428.81</v>
+        <v>1537135.72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6908.63</v>
-      </c>
-      <c r="C24" t="n">
-        <v>6907.31</v>
+        <v>607563.26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>599978.73</v>
-      </c>
-      <c r="C25" t="n">
-        <v>647904.5699999999</v>
+        <v>164274.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>598666.11</v>
-      </c>
-      <c r="C26" t="n">
-        <v>638404.61</v>
+        <v>6907.31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1018549.43</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1055118.95</v>
+        <v>6248.52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695074.91</v>
-      </c>
-      <c r="C28" t="n">
-        <v>694045.97</v>
+        <v>845439.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>298061.13</v>
-      </c>
-      <c r="C29" t="n">
-        <v>298166.4</v>
+        <v>1169260.18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
-        <v>3776352.36</v>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>318428.81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92423.5</v>
-      </c>
-      <c r="C31" t="n">
-        <v>92432.95</v>
+        <v>647904.5699999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20711.3</v>
-      </c>
-      <c r="C32" t="n">
-        <v>20703.83</v>
+        <v>638404.61</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>404674.1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>413382.91</v>
+        <v>1055118.95</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>729640.64</v>
-      </c>
-      <c r="C34" t="n">
-        <v>739484.97</v>
+        <v>694045.97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130501.98</v>
-      </c>
-      <c r="C35" t="n">
-        <v>126595.33</v>
+        <v>298166.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>13246.41</v>
-      </c>
-      <c r="C36" t="n">
-        <v>18153.67</v>
+        <v>3776352.36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13246.41</v>
-      </c>
-      <c r="C37" t="n">
-        <v>18153.67</v>
+        <v>92432.95</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>109049.46</v>
-      </c>
-      <c r="C38" t="n">
-        <v>108967.3</v>
+        <v>20703.83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>126899.18</v>
-      </c>
-      <c r="C39" t="n">
-        <v>126857.86</v>
+        <v>413382.91</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>113105.31</v>
-      </c>
-      <c r="C40" t="n">
-        <v>113087.21</v>
+        <v>739484.97</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>250406.3</v>
-      </c>
-      <c r="C41" t="n">
-        <v>253467.02</v>
+        <v>126595.33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>371749.17</v>
-      </c>
-      <c r="C42" t="n">
-        <v>371937.45</v>
+        <v>18153.67</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>158579.17</v>
-      </c>
-      <c r="C43" t="n">
-        <v>166670.66</v>
+        <v>108967.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>362462.63</v>
-      </c>
-      <c r="C44" t="n">
-        <v>362622.93</v>
+        <v>126857.86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>256181.59</v>
-      </c>
-      <c r="C45" t="n">
-        <v>256133.99</v>
+        <v>113087.21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1183672.94</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1247721.79</v>
+        <v>253467.02</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2797055.48</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2797333.67</v>
+        <v>371937.45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2705185.73</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3035007.23</v>
+        <v>166670.66</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>792057.37</v>
-      </c>
-      <c r="C49" t="n">
-        <v>791305.73</v>
+        <v>362622.93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>282780.02</v>
-      </c>
-      <c r="C50" t="n">
-        <v>265311.28</v>
+        <v>256133.99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>179165.87</v>
-      </c>
-      <c r="C51" t="n">
-        <v>179215.94</v>
+        <v>1247721.79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>103565.13</v>
-      </c>
-      <c r="C52" t="n">
-        <v>103625.8</v>
+        <v>2797333.67</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>571050.0600000001</v>
-      </c>
-      <c r="C53" t="n">
-        <v>652882.91</v>
+        <v>3035007.23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>28552502.95</v>
-      </c>
-      <c r="C54" t="n">
-        <v>32644145.68</v>
+        <v>791305.73</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>265311.28</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Toronto Trust Multimercado</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>179215.94</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>103625.8</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,565 +439,714 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33672295.76</v>
+        <v>365309.07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>485699.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>623561.03</v>
+        <v>819184.9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>819190.8199999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365309.07</v>
+        <v>123274.27</v>
+      </c>
+      <c r="C4" t="n">
+        <v>128213.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>819184.9</v>
+        <v>178433.93</v>
+      </c>
+      <c r="C5" t="n">
+        <v>178472.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123274.27</v>
+        <v>289342.64</v>
+      </c>
+      <c r="C6" t="n">
+        <v>309685.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178433.93</v>
+        <v>123.92</v>
+      </c>
+      <c r="C7" t="n">
+        <v>118.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>289342.64</v>
+        <v>943595.25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>943783.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123.92</v>
+        <v>625408.05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>660466.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943595.25</v>
+        <v>311282.15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>342697.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>625408.05</v>
+        <v>16532.89</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7610.35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>311282.15</v>
+        <v>2450230.98</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2449779.31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16532.89</v>
+        <v>39159.76</v>
+      </c>
+      <c r="C13" t="n">
+        <v>39169.13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2450230.98</v>
+        <v>8033.56</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8031.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>39159.76</v>
+        <v>14883.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14866.78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8033.56</v>
+        <v>628981.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>638329.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14883.9</v>
+        <v>91964.45</v>
+      </c>
+      <c r="C17" t="n">
+        <v>105811.67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>628981.3</v>
+        <v>491519.94</v>
+      </c>
+      <c r="C18" t="n">
+        <v>449341</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91964.45</v>
+        <v>2902240.16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2882031.52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>491519.94</v>
+        <v>17525.18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>17517.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2902240.16</v>
-      </c>
+        <v>1537135.72</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17525.18</v>
-      </c>
+        <v>607563.26</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1537135.72</v>
-      </c>
+        <v>164274.08</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>607563.26</v>
-      </c>
+        <v>6907.31</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>164274.08</v>
-      </c>
+        <v>6248.52</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6907.31</v>
-      </c>
+        <v>845439.2</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6248.52</v>
-      </c>
+        <v>1169260.18</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>845439.2</v>
-      </c>
+        <v>318428.81</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1169260.18</v>
-      </c>
+        <v>647904.5699999999</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>318428.81</v>
-      </c>
+        <v>638404.61</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>647904.5699999999</v>
-      </c>
+        <v>1055118.95</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>638404.61</v>
+        <v>694045.97</v>
+      </c>
+      <c r="C32" t="n">
+        <v>632766.52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1055118.95</v>
+        <v>298166.4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>298315.05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>694045.97</v>
+        <v>3776352.36</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3800311.45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>298166.4</v>
+        <v>92432.95</v>
+      </c>
+      <c r="C35" t="n">
+        <v>92453.92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3776352.36</v>
+        <v>20703.83</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20696.69</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92432.95</v>
+        <v>413382.91</v>
+      </c>
+      <c r="C37" t="n">
+        <v>403666.15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20703.83</v>
+        <v>739484.97</v>
+      </c>
+      <c r="C38" t="n">
+        <v>744958.36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>413382.91</v>
+        <v>126595.33</v>
+      </c>
+      <c r="C39" t="n">
+        <v>132610.88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>739484.97</v>
+        <v>18153.67</v>
+      </c>
+      <c r="C40" t="n">
+        <v>18141.81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>126595.33</v>
+        <v>108967.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>120003.84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18153.67</v>
+        <v>126857.86</v>
+      </c>
+      <c r="C42" t="n">
+        <v>126840.84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>108967.3</v>
+        <v>113087.21</v>
+      </c>
+      <c r="C43" t="n">
+        <v>113135.83</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>126857.86</v>
-      </c>
+        <v>253467.02</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>113087.21</v>
+        <v>371937.45</v>
+      </c>
+      <c r="C45" t="n">
+        <v>371673.13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>253467.02</v>
+        <v>166670.66</v>
+      </c>
+      <c r="C46" t="n">
+        <v>176528.12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>371937.45</v>
+        <v>362622.93</v>
+      </c>
+      <c r="C47" t="n">
+        <v>362441.46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>166670.66</v>
+        <v>256133.99</v>
+      </c>
+      <c r="C48" t="n">
+        <v>256093.93</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>362622.93</v>
+        <v>1247721.79</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1248096.14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>256133.99</v>
+        <v>2797333.67</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2797583.94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1247721.79</v>
+        <v>3035007.23</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3138396.02</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2797333.67</v>
+        <v>791305.73</v>
+      </c>
+      <c r="C52" t="n">
+        <v>792215.97</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3035007.23</v>
+        <v>265311.28</v>
+      </c>
+      <c r="C53" t="n">
+        <v>265070.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>791305.73</v>
+        <v>179215.94</v>
+      </c>
+      <c r="C54" t="n">
+        <v>179222.74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>265311.28</v>
+        <v>103625.8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>103640.49</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>179215.94</v>
+        <v>623561.03</v>
+      </c>
+      <c r="C56" t="n">
+        <v>635135.1899999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>103625.8</v>
+        <v>33672295.76</v>
+      </c>
+      <c r="C57" t="n">
+        <v>26675677.8</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>485699.02</v>
       </c>
+      <c r="D2" t="n">
+        <v>565101.89</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>819190.8199999999</v>
       </c>
+      <c r="D3" t="n">
+        <v>861227.13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>128213.71</v>
       </c>
+      <c r="D4" t="n">
+        <v>138249.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>178472.19</v>
       </c>
+      <c r="D5" t="n">
+        <v>181482.19</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>309685.18</v>
       </c>
+      <c r="D6" t="n">
+        <v>325739.35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>118.5</v>
       </c>
+      <c r="D7" t="n">
+        <v>115.43</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>943783.88</v>
       </c>
+      <c r="D8" t="n">
+        <v>943141.51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>660466.28</v>
       </c>
+      <c r="D9" t="n">
+        <v>660430.85</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>342697.15</v>
       </c>
+      <c r="D10" t="n">
+        <v>394551.38</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>7610.35</v>
       </c>
+      <c r="D11" t="n">
+        <v>7609.19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>2449779.31</v>
       </c>
+      <c r="D12" t="n">
+        <v>2448999.77</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -600,6 +638,9 @@
       <c r="C13" t="n">
         <v>39169.13</v>
       </c>
+      <c r="D13" t="n">
+        <v>39163.55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -613,6 +654,9 @@
       <c r="C14" t="n">
         <v>8031.2</v>
       </c>
+      <c r="D14" t="n">
+        <v>8031.67</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -626,6 +670,9 @@
       <c r="C15" t="n">
         <v>14866.78</v>
       </c>
+      <c r="D15" t="n">
+        <v>14892.57</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -639,6 +686,9 @@
       <c r="C16" t="n">
         <v>638329.25</v>
       </c>
+      <c r="D16" t="n">
+        <v>628556.1800000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -652,6 +702,9 @@
       <c r="C17" t="n">
         <v>105811.67</v>
       </c>
+      <c r="D17" t="n">
+        <v>109707.93</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -665,6 +718,9 @@
       <c r="C18" t="n">
         <v>449341</v>
       </c>
+      <c r="D18" t="n">
+        <v>430757.43</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -678,6 +734,9 @@
       <c r="C19" t="n">
         <v>2882031.52</v>
       </c>
+      <c r="D19" t="n">
+        <v>2868725.96</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -691,6 +750,9 @@
       <c r="C20" t="n">
         <v>17517.08</v>
       </c>
+      <c r="D20" t="n">
+        <v>17522.36</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -702,6 +764,9 @@
         <v>1537135.72</v>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>1536490.53</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -713,6 +778,9 @@
         <v>607563.26</v>
       </c>
       <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>607680.1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -724,6 +792,9 @@
         <v>164274.08</v>
       </c>
       <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>151548.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -735,6 +806,9 @@
         <v>6907.31</v>
       </c>
       <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>6904</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -746,6 +820,9 @@
         <v>6248.52</v>
       </c>
       <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>6255.08</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -757,6 +834,9 @@
         <v>845439.2</v>
       </c>
       <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>800937.97</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -768,6 +848,9 @@
         <v>1169260.18</v>
       </c>
       <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>1100227.2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -779,6 +862,9 @@
         <v>318428.81</v>
       </c>
       <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>318659.21</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -790,6 +876,9 @@
         <v>647904.5699999999</v>
       </c>
       <c r="C29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>624494.92</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -801,6 +890,9 @@
         <v>638404.61</v>
       </c>
       <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>640094.26</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -812,6 +904,9 @@
         <v>1055118.95</v>
       </c>
       <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>934449.47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -825,6 +920,9 @@
       <c r="C32" t="n">
         <v>632766.52</v>
       </c>
+      <c r="D32" t="n">
+        <v>653262.5699999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -838,6 +936,9 @@
       <c r="C33" t="n">
         <v>298315.05</v>
       </c>
+      <c r="D33" t="n">
+        <v>248123.12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -851,6 +952,9 @@
       <c r="C34" t="n">
         <v>3800311.45</v>
       </c>
+      <c r="D34" t="n">
+        <v>3801459.71</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -864,6 +968,9 @@
       <c r="C35" t="n">
         <v>92453.92</v>
       </c>
+      <c r="D35" t="n">
+        <v>85416.59</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -877,6 +984,9 @@
       <c r="C36" t="n">
         <v>20696.69</v>
       </c>
+      <c r="D36" t="n">
+        <v>20698.73</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -890,6 +1000,9 @@
       <c r="C37" t="n">
         <v>403666.15</v>
       </c>
+      <c r="D37" t="n">
+        <v>395690.89</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -903,6 +1016,9 @@
       <c r="C38" t="n">
         <v>744958.36</v>
       </c>
+      <c r="D38" t="n">
+        <v>633216.15</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -916,6 +1032,9 @@
       <c r="C39" t="n">
         <v>132610.88</v>
       </c>
+      <c r="D39" t="n">
+        <v>170175.16</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -929,6 +1048,9 @@
       <c r="C40" t="n">
         <v>18141.81</v>
       </c>
+      <c r="D40" t="n">
+        <v>20521.79</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -942,6 +1064,9 @@
       <c r="C41" t="n">
         <v>120003.84</v>
       </c>
+      <c r="D41" t="n">
+        <v>132066.57</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -955,6 +1080,9 @@
       <c r="C42" t="n">
         <v>126840.84</v>
       </c>
+      <c r="D42" t="n">
+        <v>126896.24</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -968,6 +1096,9 @@
       <c r="C43" t="n">
         <v>113135.83</v>
       </c>
+      <c r="D43" t="n">
+        <v>82595.17999999999</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -979,6 +1110,9 @@
         <v>253467.02</v>
       </c>
       <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>293643.39</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -992,6 +1126,9 @@
       <c r="C45" t="n">
         <v>371673.13</v>
       </c>
+      <c r="D45" t="n">
+        <v>372096.38</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1005,6 +1142,9 @@
       <c r="C46" t="n">
         <v>176528.12</v>
       </c>
+      <c r="D46" t="n">
+        <v>196561.62</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1018,6 +1158,9 @@
       <c r="C47" t="n">
         <v>362441.46</v>
       </c>
+      <c r="D47" t="n">
+        <v>362602.98</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1031,6 +1174,9 @@
       <c r="C48" t="n">
         <v>256093.93</v>
       </c>
+      <c r="D48" t="n">
+        <v>241154.27</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1044,6 +1190,9 @@
       <c r="C49" t="n">
         <v>1248096.14</v>
       </c>
+      <c r="D49" t="n">
+        <v>1269076.97</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1057,6 +1206,9 @@
       <c r="C50" t="n">
         <v>2797583.94</v>
       </c>
+      <c r="D50" t="n">
+        <v>2797186.83</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1070,6 +1222,9 @@
       <c r="C51" t="n">
         <v>3138396.02</v>
       </c>
+      <c r="D51" t="n">
+        <v>3295528.57</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1083,6 +1238,9 @@
       <c r="C52" t="n">
         <v>792215.97</v>
       </c>
+      <c r="D52" t="n">
+        <v>791909</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1096,6 +1254,9 @@
       <c r="C53" t="n">
         <v>265070.5</v>
       </c>
+      <c r="D53" t="n">
+        <v>265317.49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1109,6 +1270,9 @@
       <c r="C54" t="n">
         <v>179222.74</v>
       </c>
+      <c r="D54" t="n">
+        <v>179187.38</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1122,6 +1286,9 @@
       <c r="C55" t="n">
         <v>103640.49</v>
       </c>
+      <c r="D55" t="n">
+        <v>103621.96</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1135,6 +1302,9 @@
       <c r="C56" t="n">
         <v>635135.1899999999</v>
       </c>
+      <c r="D56" t="n">
+        <v>627958.46</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1147,6 +1317,9 @@
       </c>
       <c r="C57" t="n">
         <v>26675677.8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>33909756.72</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>565101.89</v>
       </c>
+      <c r="E2" t="n">
+        <v>594908.27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>861227.13</v>
       </c>
+      <c r="E3" t="n">
+        <v>895516.92</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,829 +508,1000 @@
       <c r="D4" t="n">
         <v>138249.5</v>
       </c>
+      <c r="E4" t="n">
+        <v>138202.45</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>178433.93</v>
-      </c>
-      <c r="C5" t="n">
-        <v>178472.19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>181482.19</v>
+          <t>Adcap Wise</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>278307.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>289342.64</v>
+        <v>178433.93</v>
       </c>
       <c r="C6" t="n">
-        <v>309685.18</v>
+        <v>178472.19</v>
       </c>
       <c r="D6" t="n">
-        <v>325739.35</v>
+        <v>181482.19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>183409.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>123.92</v>
+        <v>289342.64</v>
       </c>
       <c r="C7" t="n">
-        <v>118.5</v>
+        <v>309685.18</v>
       </c>
       <c r="D7" t="n">
-        <v>115.43</v>
+        <v>325739.35</v>
+      </c>
+      <c r="E7" t="n">
+        <v>326157.33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>943595.25</v>
+        <v>123.92</v>
       </c>
       <c r="C8" t="n">
-        <v>943783.88</v>
+        <v>118.5</v>
       </c>
       <c r="D8" t="n">
-        <v>943141.51</v>
+        <v>115.43</v>
+      </c>
+      <c r="E8" t="n">
+        <v>117.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>625408.05</v>
+        <v>943595.25</v>
       </c>
       <c r="C9" t="n">
-        <v>660466.28</v>
+        <v>943783.88</v>
       </c>
       <c r="D9" t="n">
-        <v>660430.85</v>
+        <v>943141.51</v>
+      </c>
+      <c r="E9" t="n">
+        <v>943356.6899999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>311282.15</v>
+        <v>625408.05</v>
       </c>
       <c r="C10" t="n">
-        <v>342697.15</v>
+        <v>660466.28</v>
       </c>
       <c r="D10" t="n">
-        <v>394551.38</v>
+        <v>660430.85</v>
+      </c>
+      <c r="E10" t="n">
+        <v>660570.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16532.89</v>
+        <v>311282.15</v>
       </c>
       <c r="C11" t="n">
-        <v>7610.35</v>
+        <v>342697.15</v>
       </c>
       <c r="D11" t="n">
-        <v>7609.19</v>
+        <v>394551.38</v>
+      </c>
+      <c r="E11" t="n">
+        <v>394540.44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2450230.98</v>
+        <v>16532.89</v>
       </c>
       <c r="C12" t="n">
-        <v>2449779.31</v>
+        <v>7610.35</v>
       </c>
       <c r="D12" t="n">
-        <v>2448999.77</v>
+        <v>7609.19</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7643.86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39159.76</v>
+        <v>2450230.98</v>
       </c>
       <c r="C13" t="n">
-        <v>39169.13</v>
+        <v>2449779.31</v>
       </c>
       <c r="D13" t="n">
-        <v>39163.55</v>
+        <v>2448999.77</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2448826.62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8033.56</v>
+        <v>39159.76</v>
       </c>
       <c r="C14" t="n">
-        <v>8031.2</v>
+        <v>39169.13</v>
       </c>
       <c r="D14" t="n">
-        <v>8031.67</v>
+        <v>39163.55</v>
+      </c>
+      <c r="E14" t="n">
+        <v>39184.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14883.9</v>
+        <v>8033.56</v>
       </c>
       <c r="C15" t="n">
-        <v>14866.78</v>
+        <v>8031.2</v>
       </c>
       <c r="D15" t="n">
-        <v>14892.57</v>
+        <v>8031.67</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8028.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>628981.3</v>
+        <v>14883.9</v>
       </c>
       <c r="C16" t="n">
-        <v>638329.25</v>
+        <v>14866.78</v>
       </c>
       <c r="D16" t="n">
-        <v>628556.1800000001</v>
+        <v>14892.57</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14885.81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91964.45</v>
+        <v>628981.3</v>
       </c>
       <c r="C17" t="n">
-        <v>105811.67</v>
+        <v>638329.25</v>
       </c>
       <c r="D17" t="n">
-        <v>109707.93</v>
+        <v>628556.1800000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>628700.3199999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>491519.94</v>
+        <v>91964.45</v>
       </c>
       <c r="C18" t="n">
-        <v>449341</v>
+        <v>105811.67</v>
       </c>
       <c r="D18" t="n">
-        <v>430757.43</v>
+        <v>109707.93</v>
+      </c>
+      <c r="E18" t="n">
+        <v>126410.53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2902240.16</v>
+        <v>491519.94</v>
       </c>
       <c r="C19" t="n">
-        <v>2882031.52</v>
+        <v>449341</v>
       </c>
       <c r="D19" t="n">
-        <v>2868725.96</v>
+        <v>430757.43</v>
+      </c>
+      <c r="E19" t="n">
+        <v>430957.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17525.18</v>
+        <v>2902240.16</v>
       </c>
       <c r="C20" t="n">
-        <v>17517.08</v>
+        <v>2882031.52</v>
       </c>
       <c r="D20" t="n">
-        <v>17522.36</v>
+        <v>2868725.96</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2842747.63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1537135.72</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>17525.18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>17517.08</v>
+      </c>
       <c r="D21" t="n">
-        <v>1536490.53</v>
+        <v>17522.36</v>
+      </c>
+      <c r="E21" t="n">
+        <v>17519.84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>607563.26</v>
+        <v>1537135.72</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>607680.1</v>
+        <v>1536490.53</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1536329.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>164274.08</v>
+        <v>607563.26</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>151548.6</v>
+        <v>607680.1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>607953.55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6907.31</v>
+        <v>164274.08</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>6904</v>
+        <v>151548.6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>151671.39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6248.52</v>
+        <v>6907.31</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>6255.08</v>
+        <v>6904</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6906.21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>845439.2</v>
+        <v>6248.52</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>800937.97</v>
+        <v>6255.08</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6258.19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1169260.18</v>
+        <v>845439.2</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>1100227.2</v>
+        <v>800937.97</v>
+      </c>
+      <c r="E27" t="n">
+        <v>771847.49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>318428.81</v>
+        <v>1169260.18</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>318659.21</v>
+        <v>1100227.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1070691.16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>647904.5699999999</v>
+        <v>318428.81</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>624494.92</v>
+        <v>318659.21</v>
+      </c>
+      <c r="E29" t="n">
+        <v>318491.09</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>638404.61</v>
+        <v>647904.5699999999</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>640094.26</v>
+        <v>624494.92</v>
+      </c>
+      <c r="E30" t="n">
+        <v>688761.61</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1055118.95</v>
+        <v>638404.61</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>934449.47</v>
+        <v>640094.26</v>
+      </c>
+      <c r="E31" t="n">
+        <v>653450.13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>694045.97</v>
-      </c>
-      <c r="C32" t="n">
-        <v>632766.52</v>
-      </c>
+        <v>1055118.95</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>653262.5699999999</v>
+        <v>934449.47</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1058919.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>298166.4</v>
+        <v>694045.97</v>
       </c>
       <c r="C33" t="n">
-        <v>298315.05</v>
+        <v>632766.52</v>
       </c>
       <c r="D33" t="n">
-        <v>248123.12</v>
+        <v>653262.5699999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>695933.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3776352.36</v>
+        <v>298166.4</v>
       </c>
       <c r="C34" t="n">
-        <v>3800311.45</v>
+        <v>298315.05</v>
       </c>
       <c r="D34" t="n">
-        <v>3801459.71</v>
+        <v>248123.12</v>
+      </c>
+      <c r="E34" t="n">
+        <v>248099.63</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>92432.95</v>
+        <v>3776352.36</v>
       </c>
       <c r="C35" t="n">
-        <v>92453.92</v>
+        <v>3800311.45</v>
       </c>
       <c r="D35" t="n">
-        <v>85416.59</v>
+        <v>3801459.71</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3799245.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20703.83</v>
+        <v>92432.95</v>
       </c>
       <c r="C36" t="n">
-        <v>20696.69</v>
+        <v>92453.92</v>
       </c>
       <c r="D36" t="n">
-        <v>20698.73</v>
+        <v>85416.59</v>
+      </c>
+      <c r="E36" t="n">
+        <v>85492.61</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>413382.91</v>
+        <v>20703.83</v>
       </c>
       <c r="C37" t="n">
-        <v>403666.15</v>
+        <v>20696.69</v>
       </c>
       <c r="D37" t="n">
-        <v>395690.89</v>
+        <v>20698.73</v>
+      </c>
+      <c r="E37" t="n">
+        <v>20710.66</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>739484.97</v>
+        <v>413382.91</v>
       </c>
       <c r="C38" t="n">
-        <v>744958.36</v>
+        <v>403666.15</v>
       </c>
       <c r="D38" t="n">
-        <v>633216.15</v>
+        <v>395690.89</v>
+      </c>
+      <c r="E38" t="n">
+        <v>405514.97</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>126595.33</v>
+        <v>739484.97</v>
       </c>
       <c r="C39" t="n">
-        <v>132610.88</v>
+        <v>744958.36</v>
       </c>
       <c r="D39" t="n">
-        <v>170175.16</v>
+        <v>633216.15</v>
+      </c>
+      <c r="E39" t="n">
+        <v>613317</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18153.67</v>
+        <v>126595.33</v>
       </c>
       <c r="C40" t="n">
-        <v>18141.81</v>
+        <v>132610.88</v>
       </c>
       <c r="D40" t="n">
-        <v>20521.79</v>
+        <v>170175.16</v>
+      </c>
+      <c r="E40" t="n">
+        <v>178274.21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>108967.3</v>
+        <v>18153.67</v>
       </c>
       <c r="C41" t="n">
-        <v>120003.84</v>
+        <v>18141.81</v>
       </c>
       <c r="D41" t="n">
-        <v>132066.57</v>
+        <v>20521.79</v>
+      </c>
+      <c r="E41" t="n">
+        <v>20512.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>126857.86</v>
+        <v>108967.3</v>
       </c>
       <c r="C42" t="n">
-        <v>126840.84</v>
+        <v>120003.84</v>
       </c>
       <c r="D42" t="n">
-        <v>126896.24</v>
+        <v>132066.57</v>
+      </c>
+      <c r="E42" t="n">
+        <v>144005.33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>113087.21</v>
+        <v>126857.86</v>
       </c>
       <c r="C43" t="n">
-        <v>113135.83</v>
+        <v>126840.84</v>
       </c>
       <c r="D43" t="n">
-        <v>82595.17999999999</v>
+        <v>126896.24</v>
+      </c>
+      <c r="E43" t="n">
+        <v>155908.99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>253467.02</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
+        <v>113087.21</v>
+      </c>
+      <c r="C44" t="n">
+        <v>113135.83</v>
+      </c>
       <c r="D44" t="n">
-        <v>293643.39</v>
+        <v>82595.17999999999</v>
+      </c>
+      <c r="E44" t="n">
+        <v>100454.48</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>371937.45</v>
-      </c>
-      <c r="C45" t="n">
-        <v>371673.13</v>
-      </c>
+        <v>253467.02</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>372096.38</v>
+        <v>293643.39</v>
+      </c>
+      <c r="E45" t="n">
+        <v>293509.87</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>166670.66</v>
+        <v>371937.45</v>
       </c>
       <c r="C46" t="n">
-        <v>176528.12</v>
+        <v>371673.13</v>
       </c>
       <c r="D46" t="n">
-        <v>196561.62</v>
+        <v>372096.38</v>
+      </c>
+      <c r="E46" t="n">
+        <v>512417.21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>362622.93</v>
+        <v>166670.66</v>
       </c>
       <c r="C47" t="n">
-        <v>362441.46</v>
+        <v>176528.12</v>
       </c>
       <c r="D47" t="n">
-        <v>362602.98</v>
+        <v>196561.62</v>
+      </c>
+      <c r="E47" t="n">
+        <v>200673.09</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>256133.99</v>
+        <v>362622.93</v>
       </c>
       <c r="C48" t="n">
-        <v>256093.93</v>
+        <v>362441.46</v>
       </c>
       <c r="D48" t="n">
-        <v>241154.27</v>
+        <v>362602.98</v>
+      </c>
+      <c r="E48" t="n">
+        <v>362668.44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1247721.79</v>
+        <v>256133.99</v>
       </c>
       <c r="C49" t="n">
-        <v>1248096.14</v>
+        <v>256093.93</v>
       </c>
       <c r="D49" t="n">
-        <v>1269076.97</v>
+        <v>241154.27</v>
+      </c>
+      <c r="E49" t="n">
+        <v>236887.14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2797333.67</v>
+        <v>1247721.79</v>
       </c>
       <c r="C50" t="n">
-        <v>2797583.94</v>
+        <v>1248096.14</v>
       </c>
       <c r="D50" t="n">
-        <v>2797186.83</v>
+        <v>1269076.97</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1338276.35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3035007.23</v>
+        <v>2797333.67</v>
       </c>
       <c r="C51" t="n">
-        <v>3138396.02</v>
+        <v>2797583.94</v>
       </c>
       <c r="D51" t="n">
-        <v>3295528.57</v>
+        <v>2797186.83</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2797304.32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>791305.73</v>
+        <v>3035007.23</v>
       </c>
       <c r="C52" t="n">
-        <v>792215.97</v>
+        <v>3138396.02</v>
       </c>
       <c r="D52" t="n">
-        <v>791909</v>
-      </c>
+        <v>3295528.57</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>265311.28</v>
+        <v>791305.73</v>
       </c>
       <c r="C53" t="n">
-        <v>265070.5</v>
+        <v>792215.97</v>
       </c>
       <c r="D53" t="n">
-        <v>265317.49</v>
+        <v>791909</v>
+      </c>
+      <c r="E53" t="n">
+        <v>968064.26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>179215.94</v>
+        <v>265311.28</v>
       </c>
       <c r="C54" t="n">
-        <v>179222.74</v>
+        <v>265070.5</v>
       </c>
       <c r="D54" t="n">
-        <v>179187.38</v>
+        <v>265317.49</v>
+      </c>
+      <c r="E54" t="n">
+        <v>264592.37</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>103625.8</v>
+        <v>179215.94</v>
       </c>
       <c r="C55" t="n">
-        <v>103640.49</v>
+        <v>179222.74</v>
       </c>
       <c r="D55" t="n">
-        <v>103621.96</v>
+        <v>179187.38</v>
+      </c>
+      <c r="E55" t="n">
+        <v>179256.18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>623561.03</v>
+        <v>103625.8</v>
       </c>
       <c r="C56" t="n">
-        <v>635135.1899999999</v>
+        <v>103640.49</v>
       </c>
       <c r="D56" t="n">
-        <v>627958.46</v>
-      </c>
+        <v>103621.96</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>623561.03</v>
+      </c>
+      <c r="C57" t="n">
+        <v>635135.1899999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>627958.46</v>
+      </c>
+      <c r="E57" t="n">
+        <v>593818.67</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B58" t="n">
         <v>33672295.76</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C58" t="n">
         <v>26675677.8</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D58" t="n">
         <v>33909756.72</v>
+      </c>
+      <c r="E58" t="n">
+        <v>31472389.69</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>594908.27</v>
       </c>
+      <c r="F2" t="n">
+        <v>594853.52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>895516.92</v>
       </c>
+      <c r="F3" t="n">
+        <v>851160.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -510,6 +521,9 @@
       </c>
       <c r="E4" t="n">
         <v>138202.45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>148331.37</v>
       </c>
     </row>
     <row r="5">
@@ -524,6 +538,9 @@
       <c r="E5" t="n">
         <v>278307.57</v>
       </c>
+      <c r="F5" t="n">
+        <v>292408.6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -543,6 +560,9 @@
       <c r="E6" t="n">
         <v>183409.72</v>
       </c>
+      <c r="F6" t="n">
+        <v>183496.65</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -562,6 +582,9 @@
       <c r="E7" t="n">
         <v>326157.33</v>
       </c>
+      <c r="F7" t="n">
+        <v>326083.09</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +604,9 @@
       <c r="E8" t="n">
         <v>117.67</v>
       </c>
+      <c r="F8" t="n">
+        <v>115.14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -600,6 +626,9 @@
       <c r="E9" t="n">
         <v>943356.6899999999</v>
       </c>
+      <c r="F9" t="n">
+        <v>943795.39</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -619,6 +648,9 @@
       <c r="E10" t="n">
         <v>660570.37</v>
       </c>
+      <c r="F10" t="n">
+        <v>660499.48</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -638,6 +670,9 @@
       <c r="E11" t="n">
         <v>394540.44</v>
       </c>
+      <c r="F11" t="n">
+        <v>394632.68</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -657,6 +692,9 @@
       <c r="E12" t="n">
         <v>7643.86</v>
       </c>
+      <c r="F12" t="n">
+        <v>7623.54</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -676,6 +714,9 @@
       <c r="E13" t="n">
         <v>2448826.62</v>
       </c>
+      <c r="F13" t="n">
+        <v>2449754.75</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -695,6 +736,9 @@
       <c r="E14" t="n">
         <v>39184.03</v>
       </c>
+      <c r="F14" t="n">
+        <v>39103.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -714,6 +758,9 @@
       <c r="E15" t="n">
         <v>8028.06</v>
       </c>
+      <c r="F15" t="n">
+        <v>8027.71</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -733,6 +780,9 @@
       <c r="E16" t="n">
         <v>14885.81</v>
       </c>
+      <c r="F16" t="n">
+        <v>14881.79</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -752,6 +802,9 @@
       <c r="E17" t="n">
         <v>628700.3199999999</v>
       </c>
+      <c r="F17" t="n">
+        <v>649253.6899999999</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -771,6 +824,9 @@
       <c r="E18" t="n">
         <v>126410.53</v>
       </c>
+      <c r="F18" t="n">
+        <v>142644.4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -790,6 +846,9 @@
       <c r="E19" t="n">
         <v>430957.13</v>
       </c>
+      <c r="F19" t="n">
+        <v>441932.59</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -809,6 +868,9 @@
       <c r="E20" t="n">
         <v>2842747.63</v>
       </c>
+      <c r="F20" t="n">
+        <v>2830869.21</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -827,6 +889,9 @@
       </c>
       <c r="E21" t="n">
         <v>17519.84</v>
+      </c>
+      <c r="F21" t="n">
+        <v>17517.82</v>
       </c>
     </row>
     <row r="22">
@@ -845,6 +910,9 @@
       <c r="E22" t="n">
         <v>1536329.2</v>
       </c>
+      <c r="F22" t="n">
+        <v>1536828.43</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -862,6 +930,9 @@
       <c r="E23" t="n">
         <v>607953.55</v>
       </c>
+      <c r="F23" t="n">
+        <v>607923.11</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -879,6 +950,9 @@
       <c r="E24" t="n">
         <v>151671.39</v>
       </c>
+      <c r="F24" t="n">
+        <v>151645.11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -896,6 +970,9 @@
       <c r="E25" t="n">
         <v>6906.21</v>
       </c>
+      <c r="F25" t="n">
+        <v>6908.47</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -913,6 +990,9 @@
       <c r="E26" t="n">
         <v>6258.19</v>
       </c>
+      <c r="F26" t="n">
+        <v>6246.3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -930,6 +1010,9 @@
       <c r="E27" t="n">
         <v>771847.49</v>
       </c>
+      <c r="F27" t="n">
+        <v>737210.35</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -947,6 +1030,9 @@
       <c r="E28" t="n">
         <v>1070691.16</v>
       </c>
+      <c r="F28" t="n">
+        <v>1054364.74</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -964,6 +1050,9 @@
       <c r="E29" t="n">
         <v>318491.09</v>
       </c>
+      <c r="F29" t="n">
+        <v>318051.45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -981,6 +1070,9 @@
       <c r="E30" t="n">
         <v>688761.61</v>
       </c>
+      <c r="F30" t="n">
+        <v>709433.75</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -998,6 +1090,9 @@
       <c r="E31" t="n">
         <v>653450.13</v>
       </c>
+      <c r="F31" t="n">
+        <v>654065.45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1015,6 +1110,9 @@
       <c r="E32" t="n">
         <v>1058919.2</v>
       </c>
+      <c r="F32" t="n">
+        <v>1053108.31</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1034,6 +1132,9 @@
       <c r="E33" t="n">
         <v>695933.3</v>
       </c>
+      <c r="F33" t="n">
+        <v>700993.46</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1053,6 +1154,9 @@
       <c r="E34" t="n">
         <v>248099.63</v>
       </c>
+      <c r="F34" t="n">
+        <v>248223.46</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1072,6 +1176,9 @@
       <c r="E35" t="n">
         <v>3799245.9</v>
       </c>
+      <c r="F35" t="n">
+        <v>3799225.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1091,6 +1198,9 @@
       <c r="E36" t="n">
         <v>85492.61</v>
       </c>
+      <c r="F36" t="n">
+        <v>85435.97</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1110,6 +1220,9 @@
       <c r="E37" t="n">
         <v>20710.66</v>
       </c>
+      <c r="F37" t="n">
+        <v>20707.07</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1129,6 +1242,9 @@
       <c r="E38" t="n">
         <v>405514.97</v>
       </c>
+      <c r="F38" t="n">
+        <v>395710.36</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1148,6 +1264,9 @@
       <c r="E39" t="n">
         <v>613317</v>
       </c>
+      <c r="F39" t="n">
+        <v>613237.85</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1167,6 +1286,9 @@
       <c r="E40" t="n">
         <v>178274.21</v>
       </c>
+      <c r="F40" t="n">
+        <v>176520.74</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1186,6 +1308,9 @@
       <c r="E41" t="n">
         <v>20512.9</v>
       </c>
+      <c r="F41" t="n">
+        <v>20518.15</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1205,6 +1330,9 @@
       <c r="E42" t="n">
         <v>144005.33</v>
       </c>
+      <c r="F42" t="n">
+        <v>144040.14</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1224,6 +1352,9 @@
       <c r="E43" t="n">
         <v>155908.99</v>
       </c>
+      <c r="F43" t="n">
+        <v>155938.35</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1242,6 +1373,9 @@
       </c>
       <c r="E44" t="n">
         <v>100454.48</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100489.43</v>
       </c>
     </row>
     <row r="45">
@@ -1260,6 +1394,9 @@
       <c r="E45" t="n">
         <v>293509.87</v>
       </c>
+      <c r="F45" t="n">
+        <v>293482.67</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1279,6 +1416,9 @@
       <c r="E46" t="n">
         <v>512417.21</v>
       </c>
+      <c r="F46" t="n">
+        <v>512274.03</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1298,6 +1438,9 @@
       <c r="E47" t="n">
         <v>200673.09</v>
       </c>
+      <c r="F47" t="n">
+        <v>200578.67</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1317,6 +1460,9 @@
       <c r="E48" t="n">
         <v>362668.44</v>
       </c>
+      <c r="F48" t="n">
+        <v>377181.59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1336,6 +1482,9 @@
       <c r="E49" t="n">
         <v>236887.14</v>
       </c>
+      <c r="F49" t="n">
+        <v>255547</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1355,6 +1504,9 @@
       <c r="E50" t="n">
         <v>1338276.35</v>
       </c>
+      <c r="F50" t="n">
+        <v>1338720.33</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1374,6 +1526,9 @@
       <c r="E51" t="n">
         <v>2797304.32</v>
       </c>
+      <c r="F51" t="n">
+        <v>2796995.25</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1391,6 +1546,7 @@
         <v>3295528.57</v>
       </c>
       <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1410,6 +1566,9 @@
       <c r="E53" t="n">
         <v>968064.26</v>
       </c>
+      <c r="F53" t="n">
+        <v>1111976.21</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1429,6 +1588,9 @@
       <c r="E54" t="n">
         <v>264592.37</v>
       </c>
+      <c r="F54" t="n">
+        <v>265455.94</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1448,6 +1610,9 @@
       <c r="E55" t="n">
         <v>179256.18</v>
       </c>
+      <c r="F55" t="n">
+        <v>179222.47</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1465,6 +1630,7 @@
         <v>103621.96</v>
       </c>
       <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1484,6 +1650,9 @@
       <c r="E57" t="n">
         <v>593818.67</v>
       </c>
+      <c r="F57" t="n">
+        <v>596702.74</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1502,6 +1671,9 @@
       </c>
       <c r="E58" t="n">
         <v>31472389.69</v>
+      </c>
+      <c r="F58" t="n">
+        <v>31625245.33</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>594853.52</v>
       </c>
+      <c r="G2" t="n">
+        <v>590759.26</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>851160.7</v>
       </c>
+      <c r="G3" t="n">
+        <v>850994.1800000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -524,6 +535,9 @@
       </c>
       <c r="F4" t="n">
         <v>148331.37</v>
+      </c>
+      <c r="G4" t="n">
+        <v>148238.08</v>
       </c>
     </row>
     <row r="5">
@@ -541,6 +555,9 @@
       <c r="F5" t="n">
         <v>292408.6</v>
       </c>
+      <c r="G5" t="n">
+        <v>286332.14</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -563,6 +580,9 @@
       <c r="F6" t="n">
         <v>183496.65</v>
       </c>
+      <c r="G6" t="n">
+        <v>183432.33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -585,6 +605,9 @@
       <c r="F7" t="n">
         <v>326083.09</v>
       </c>
+      <c r="G7" t="n">
+        <v>325917.54</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +630,9 @@
       <c r="F8" t="n">
         <v>115.14</v>
       </c>
+      <c r="G8" t="n">
+        <v>116.17</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -629,6 +655,9 @@
       <c r="F9" t="n">
         <v>943795.39</v>
       </c>
+      <c r="G9" t="n">
+        <v>943457.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -651,6 +680,9 @@
       <c r="F10" t="n">
         <v>660499.48</v>
       </c>
+      <c r="G10" t="n">
+        <v>660626.79</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -673,6 +705,9 @@
       <c r="F11" t="n">
         <v>394632.68</v>
       </c>
+      <c r="G11" t="n">
+        <v>430891.17</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -695,6 +730,9 @@
       <c r="F12" t="n">
         <v>7623.54</v>
       </c>
+      <c r="G12" t="n">
+        <v>7614.69</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -717,6 +755,9 @@
       <c r="F13" t="n">
         <v>2449754.75</v>
       </c>
+      <c r="G13" t="n">
+        <v>2449114.4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -739,6 +780,9 @@
       <c r="F14" t="n">
         <v>39103.4</v>
       </c>
+      <c r="G14" t="n">
+        <v>39100.78</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -761,6 +805,9 @@
       <c r="F15" t="n">
         <v>8027.71</v>
       </c>
+      <c r="G15" t="n">
+        <v>8029.42</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -783,6 +830,9 @@
       <c r="F16" t="n">
         <v>14881.79</v>
       </c>
+      <c r="G16" t="n">
+        <v>14877.45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -805,6 +855,9 @@
       <c r="F17" t="n">
         <v>649253.6899999999</v>
       </c>
+      <c r="G17" t="n">
+        <v>643703.83</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -827,6 +880,9 @@
       <c r="F18" t="n">
         <v>142644.4</v>
       </c>
+      <c r="G18" t="n">
+        <v>142647.01</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -849,6 +905,9 @@
       <c r="F19" t="n">
         <v>441932.59</v>
       </c>
+      <c r="G19" t="n">
+        <v>435735.88</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -871,6 +930,9 @@
       <c r="F20" t="n">
         <v>2830869.21</v>
       </c>
+      <c r="G20" t="n">
+        <v>2804654.31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -892,6 +954,9 @@
       </c>
       <c r="F21" t="n">
         <v>17517.82</v>
+      </c>
+      <c r="G21" t="n">
+        <v>17516.39</v>
       </c>
     </row>
     <row r="22">
@@ -913,6 +978,9 @@
       <c r="F22" t="n">
         <v>1536828.43</v>
       </c>
+      <c r="G22" t="n">
+        <v>1512636.72</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -933,6 +1001,9 @@
       <c r="F23" t="n">
         <v>607923.11</v>
       </c>
+      <c r="G23" t="n">
+        <v>607632.45</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -953,6 +1024,9 @@
       <c r="F24" t="n">
         <v>151645.11</v>
       </c>
+      <c r="G24" t="n">
+        <v>151696.34</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -973,6 +1047,9 @@
       <c r="F25" t="n">
         <v>6908.47</v>
       </c>
+      <c r="G25" t="n">
+        <v>6903.17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -993,6 +1070,9 @@
       <c r="F26" t="n">
         <v>6246.3</v>
       </c>
+      <c r="G26" t="n">
+        <v>6258.23</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1013,6 +1093,9 @@
       <c r="F27" t="n">
         <v>737210.35</v>
       </c>
+      <c r="G27" t="n">
+        <v>705944.9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1033,6 +1116,9 @@
       <c r="F28" t="n">
         <v>1054364.74</v>
       </c>
+      <c r="G28" t="n">
+        <v>1013384.76</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1053,6 +1139,9 @@
       <c r="F29" t="n">
         <v>318051.45</v>
       </c>
+      <c r="G29" t="n">
+        <v>286385.33</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1073,6 +1162,9 @@
       <c r="F30" t="n">
         <v>709433.75</v>
       </c>
+      <c r="G30" t="n">
+        <v>698466.09</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1093,6 +1185,9 @@
       <c r="F31" t="n">
         <v>654065.45</v>
       </c>
+      <c r="G31" t="n">
+        <v>643465.76</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1113,6 +1208,9 @@
       <c r="F32" t="n">
         <v>1053108.31</v>
       </c>
+      <c r="G32" t="n">
+        <v>1067700.1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1135,6 +1233,9 @@
       <c r="F33" t="n">
         <v>700993.46</v>
       </c>
+      <c r="G33" t="n">
+        <v>711091.0699999999</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1157,6 +1258,9 @@
       <c r="F34" t="n">
         <v>248223.46</v>
       </c>
+      <c r="G34" t="n">
+        <v>248122.17</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1179,6 +1283,9 @@
       <c r="F35" t="n">
         <v>3799225.2</v>
       </c>
+      <c r="G35" t="n">
+        <v>3799362.07</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1201,6 +1308,9 @@
       <c r="F36" t="n">
         <v>85435.97</v>
       </c>
+      <c r="G36" t="n">
+        <v>85417.35000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1223,6 +1333,9 @@
       <c r="F37" t="n">
         <v>20707.07</v>
       </c>
+      <c r="G37" t="n">
+        <v>20692.36</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1245,6 +1358,9 @@
       <c r="F38" t="n">
         <v>395710.36</v>
       </c>
+      <c r="G38" t="n">
+        <v>380463.68</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1267,6 +1383,9 @@
       <c r="F39" t="n">
         <v>613237.85</v>
       </c>
+      <c r="G39" t="n">
+        <v>613092.86</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1289,6 +1408,9 @@
       <c r="F40" t="n">
         <v>176520.74</v>
       </c>
+      <c r="G40" t="n">
+        <v>176586.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1311,6 +1433,9 @@
       <c r="F41" t="n">
         <v>20518.15</v>
       </c>
+      <c r="G41" t="n">
+        <v>20518.36</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1333,6 +1458,9 @@
       <c r="F42" t="n">
         <v>144040.14</v>
       </c>
+      <c r="G42" t="n">
+        <v>143980.31</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1355,6 +1483,9 @@
       <c r="F43" t="n">
         <v>155938.35</v>
       </c>
+      <c r="G43" t="n">
+        <v>155829.78</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1376,6 +1507,9 @@
       </c>
       <c r="F44" t="n">
         <v>100489.43</v>
+      </c>
+      <c r="G44" t="n">
+        <v>116241.01</v>
       </c>
     </row>
     <row r="45">
@@ -1397,6 +1531,9 @@
       <c r="F45" t="n">
         <v>293482.67</v>
       </c>
+      <c r="G45" t="n">
+        <v>293349.22</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1419,6 +1556,9 @@
       <c r="F46" t="n">
         <v>512274.03</v>
       </c>
+      <c r="G46" t="n">
+        <v>512442.21</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1441,6 +1581,9 @@
       <c r="F47" t="n">
         <v>200578.67</v>
       </c>
+      <c r="G47" t="n">
+        <v>200608.33</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1463,6 +1606,9 @@
       <c r="F48" t="n">
         <v>377181.59</v>
       </c>
+      <c r="G48" t="n">
+        <v>377194.38</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1485,6 +1631,9 @@
       <c r="F49" t="n">
         <v>255547</v>
       </c>
+      <c r="G49" t="n">
+        <v>258376.06</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1507,6 +1656,9 @@
       <c r="F50" t="n">
         <v>1338720.33</v>
       </c>
+      <c r="G50" t="n">
+        <v>1338547.29</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1529,6 +1681,9 @@
       <c r="F51" t="n">
         <v>2796995.25</v>
       </c>
+      <c r="G51" t="n">
+        <v>2777717.94</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1547,6 +1702,7 @@
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1569,6 +1725,9 @@
       <c r="F53" t="n">
         <v>1111976.21</v>
       </c>
+      <c r="G53" t="n">
+        <v>1217800.75</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1591,6 +1750,9 @@
       <c r="F54" t="n">
         <v>265455.94</v>
       </c>
+      <c r="G54" t="n">
+        <v>264931.1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1613,6 +1775,9 @@
       <c r="F55" t="n">
         <v>179222.47</v>
       </c>
+      <c r="G55" t="n">
+        <v>179283.83</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1631,6 +1796,7 @@
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1653,6 +1819,9 @@
       <c r="F57" t="n">
         <v>596702.74</v>
       </c>
+      <c r="G57" t="n">
+        <v>595771.36</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1674,6 +1843,9 @@
       </c>
       <c r="F58" t="n">
         <v>31625245.33</v>
+      </c>
+      <c r="G58" t="n">
+        <v>31575881.85</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>590759.26</v>
       </c>
+      <c r="H2" t="n">
+        <v>564436.64</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>850994.1800000001</v>
       </c>
+      <c r="H3" t="n">
+        <v>850767.0699999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>148238.08</v>
+      </c>
+      <c r="H4" t="n">
+        <v>148350.96</v>
       </c>
     </row>
     <row r="5">
@@ -558,6 +572,9 @@
       <c r="G5" t="n">
         <v>286332.14</v>
       </c>
+      <c r="H5" t="n">
+        <v>282171.11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -583,6 +600,9 @@
       <c r="G6" t="n">
         <v>183432.33</v>
       </c>
+      <c r="H6" t="n">
+        <v>183481.33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -608,6 +628,9 @@
       <c r="G7" t="n">
         <v>325917.54</v>
       </c>
+      <c r="H7" t="n">
+        <v>326136.85</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +656,9 @@
       <c r="G8" t="n">
         <v>116.17</v>
       </c>
+      <c r="H8" t="n">
+        <v>116.13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -658,6 +684,9 @@
       <c r="G9" t="n">
         <v>943457.1</v>
       </c>
+      <c r="H9" t="n">
+        <v>943368.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -683,6 +712,9 @@
       <c r="G10" t="n">
         <v>660626.79</v>
       </c>
+      <c r="H10" t="n">
+        <v>660474.14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -708,6 +740,9 @@
       <c r="G11" t="n">
         <v>430891.17</v>
       </c>
+      <c r="H11" t="n">
+        <v>430739.11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -733,6 +768,9 @@
       <c r="G12" t="n">
         <v>7614.69</v>
       </c>
+      <c r="H12" t="n">
+        <v>7618.01</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -758,6 +796,9 @@
       <c r="G13" t="n">
         <v>2449114.4</v>
       </c>
+      <c r="H13" t="n">
+        <v>2449734.42</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -783,6 +824,9 @@
       <c r="G14" t="n">
         <v>39100.78</v>
       </c>
+      <c r="H14" t="n">
+        <v>39091.37</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -808,6 +852,9 @@
       <c r="G15" t="n">
         <v>8029.42</v>
       </c>
+      <c r="H15" t="n">
+        <v>8028.53</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -833,6 +880,9 @@
       <c r="G16" t="n">
         <v>14877.45</v>
       </c>
+      <c r="H16" t="n">
+        <v>14870.92</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -858,6 +908,9 @@
       <c r="G17" t="n">
         <v>643703.83</v>
       </c>
+      <c r="H17" t="n">
+        <v>643550.45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -883,6 +936,9 @@
       <c r="G18" t="n">
         <v>142647.01</v>
       </c>
+      <c r="H18" t="n">
+        <v>153253.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -908,6 +964,9 @@
       <c r="G19" t="n">
         <v>435735.88</v>
       </c>
+      <c r="H19" t="n">
+        <v>435920.96</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -933,6 +992,9 @@
       <c r="G20" t="n">
         <v>2804654.31</v>
       </c>
+      <c r="H20" t="n">
+        <v>2786874.85</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -957,6 +1019,9 @@
       </c>
       <c r="G21" t="n">
         <v>17516.39</v>
+      </c>
+      <c r="H21" t="n">
+        <v>17524.76</v>
       </c>
     </row>
     <row r="22">
@@ -981,6 +1046,9 @@
       <c r="G22" t="n">
         <v>1512636.72</v>
       </c>
+      <c r="H22" t="n">
+        <v>1492528.47</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1004,6 +1072,9 @@
       <c r="G23" t="n">
         <v>607632.45</v>
       </c>
+      <c r="H23" t="n">
+        <v>627584.9300000001</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1027,6 +1098,9 @@
       <c r="G24" t="n">
         <v>151696.34</v>
       </c>
+      <c r="H24" t="n">
+        <v>151538.17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1050,6 +1124,9 @@
       <c r="G25" t="n">
         <v>6903.17</v>
       </c>
+      <c r="H25" t="n">
+        <v>6903.92</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1073,6 +1150,9 @@
       <c r="G26" t="n">
         <v>6258.23</v>
       </c>
+      <c r="H26" t="n">
+        <v>6247.49</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1096,6 +1176,9 @@
       <c r="G27" t="n">
         <v>705944.9</v>
       </c>
+      <c r="H27" t="n">
+        <v>705888.6899999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1119,6 +1202,9 @@
       <c r="G28" t="n">
         <v>1013384.76</v>
       </c>
+      <c r="H28" t="n">
+        <v>1013891.46</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1142,6 +1228,9 @@
       <c r="G29" t="n">
         <v>286385.33</v>
       </c>
+      <c r="H29" t="n">
+        <v>287250.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1165,6 +1254,9 @@
       <c r="G30" t="n">
         <v>698466.09</v>
       </c>
+      <c r="H30" t="n">
+        <v>711173.26</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1188,6 +1280,9 @@
       <c r="G31" t="n">
         <v>643465.76</v>
       </c>
+      <c r="H31" t="n">
+        <v>649685.87</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1211,6 +1306,9 @@
       <c r="G32" t="n">
         <v>1067700.1</v>
       </c>
+      <c r="H32" t="n">
+        <v>1068100.63</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1236,6 +1334,9 @@
       <c r="G33" t="n">
         <v>711091.0699999999</v>
       </c>
+      <c r="H33" t="n">
+        <v>711196.79</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1261,6 +1362,9 @@
       <c r="G34" t="n">
         <v>248122.17</v>
       </c>
+      <c r="H34" t="n">
+        <v>347792.69</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1286,6 +1390,9 @@
       <c r="G35" t="n">
         <v>3799362.07</v>
       </c>
+      <c r="H35" t="n">
+        <v>3800336.57</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1311,6 +1418,9 @@
       <c r="G36" t="n">
         <v>85417.35000000001</v>
       </c>
+      <c r="H36" t="n">
+        <v>85492.27</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1336,6 +1446,9 @@
       <c r="G37" t="n">
         <v>20692.36</v>
       </c>
+      <c r="H37" t="n">
+        <v>20701.82</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1361,6 +1474,9 @@
       <c r="G38" t="n">
         <v>380463.68</v>
       </c>
+      <c r="H38" t="n">
+        <v>390619.31</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1386,6 +1502,9 @@
       <c r="G39" t="n">
         <v>613092.86</v>
       </c>
+      <c r="H39" t="n">
+        <v>618233.86</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1411,6 +1530,9 @@
       <c r="G40" t="n">
         <v>176586.95</v>
       </c>
+      <c r="H40" t="n">
+        <v>209802.13</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1436,6 +1558,9 @@
       <c r="G41" t="n">
         <v>20518.36</v>
       </c>
+      <c r="H41" t="n">
+        <v>20522.96</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1461,6 +1586,9 @@
       <c r="G42" t="n">
         <v>143980.31</v>
       </c>
+      <c r="H42" t="n">
+        <v>143985.93</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1486,6 +1614,9 @@
       <c r="G43" t="n">
         <v>155829.78</v>
       </c>
+      <c r="H43" t="n">
+        <v>155880.71</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1510,6 +1641,9 @@
       </c>
       <c r="G44" t="n">
         <v>116241.01</v>
+      </c>
+      <c r="H44" t="n">
+        <v>116280.66</v>
       </c>
     </row>
     <row r="45">
@@ -1534,6 +1668,9 @@
       <c r="G45" t="n">
         <v>293349.22</v>
       </c>
+      <c r="H45" t="n">
+        <v>295457.68</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1559,6 +1696,9 @@
       <c r="G46" t="n">
         <v>512442.21</v>
       </c>
+      <c r="H46" t="n">
+        <v>512694.1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1584,6 +1724,9 @@
       <c r="G47" t="n">
         <v>200608.33</v>
       </c>
+      <c r="H47" t="n">
+        <v>212651.24</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1609,6 +1752,9 @@
       <c r="G48" t="n">
         <v>377194.38</v>
       </c>
+      <c r="H48" t="n">
+        <v>377168.57</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1634,6 +1780,9 @@
       <c r="G49" t="n">
         <v>258376.06</v>
       </c>
+      <c r="H49" t="n">
+        <v>259117.3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1659,6 +1808,9 @@
       <c r="G50" t="n">
         <v>1338547.29</v>
       </c>
+      <c r="H50" t="n">
+        <v>1338482.54</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1683,6 +1835,9 @@
       </c>
       <c r="G51" t="n">
         <v>2777717.94</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2788795.91</v>
       </c>
     </row>
     <row r="52">
@@ -1703,6 +1858,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1728,6 +1884,9 @@
       <c r="G53" t="n">
         <v>1217800.75</v>
       </c>
+      <c r="H53" t="n">
+        <v>1218305.75</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1753,6 +1912,9 @@
       <c r="G54" t="n">
         <v>264931.1</v>
       </c>
+      <c r="H54" t="n">
+        <v>264978.08</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1777,6 +1939,9 @@
       </c>
       <c r="G55" t="n">
         <v>179283.83</v>
+      </c>
+      <c r="H55" t="n">
+        <v>179286.51</v>
       </c>
     </row>
     <row r="56">
@@ -1797,6 +1962,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1822,6 +1988,9 @@
       <c r="G57" t="n">
         <v>595771.36</v>
       </c>
+      <c r="H57" t="n">
+        <v>598775.2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1846,6 +2015,9 @@
       </c>
       <c r="G58" t="n">
         <v>31575881.85</v>
+      </c>
+      <c r="H58" t="n">
+        <v>31735085.68</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>564436.64</v>
       </c>
+      <c r="I2" t="n">
+        <v>412652.61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>850767.0699999999</v>
       </c>
+      <c r="I3" t="n">
+        <v>850744.33</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -552,6 +563,9 @@
       </c>
       <c r="H4" t="n">
         <v>148350.96</v>
+      </c>
+      <c r="I4" t="n">
+        <v>148449.15</v>
       </c>
     </row>
     <row r="5">
@@ -575,6 +589,9 @@
       <c r="H5" t="n">
         <v>282171.11</v>
       </c>
+      <c r="I5" t="n">
+        <v>284891.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -603,6 +620,9 @@
       <c r="H6" t="n">
         <v>183481.33</v>
       </c>
+      <c r="I6" t="n">
+        <v>183444.34</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -631,6 +651,9 @@
       <c r="H7" t="n">
         <v>326136.85</v>
       </c>
+      <c r="I7" t="n">
+        <v>326012.84</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +682,9 @@
       <c r="H8" t="n">
         <v>116.13</v>
       </c>
+      <c r="I8" t="n">
+        <v>114.04</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -687,6 +713,9 @@
       <c r="H9" t="n">
         <v>943368.14</v>
       </c>
+      <c r="I9" t="n">
+        <v>943606.22</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -715,6 +744,9 @@
       <c r="H10" t="n">
         <v>660474.14</v>
       </c>
+      <c r="I10" t="n">
+        <v>660607.4300000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -743,6 +775,9 @@
       <c r="H11" t="n">
         <v>430739.11</v>
       </c>
+      <c r="I11" t="n">
+        <v>430844.21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -771,6 +806,9 @@
       <c r="H12" t="n">
         <v>7618.01</v>
       </c>
+      <c r="I12" t="n">
+        <v>7595.12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -799,6 +837,9 @@
       <c r="H13" t="n">
         <v>2449734.42</v>
       </c>
+      <c r="I13" t="n">
+        <v>2449456.68</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -827,6 +868,9 @@
       <c r="H14" t="n">
         <v>39091.37</v>
       </c>
+      <c r="I14" t="n">
+        <v>39116.01</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -855,6 +899,9 @@
       <c r="H15" t="n">
         <v>8028.53</v>
       </c>
+      <c r="I15" t="n">
+        <v>8031.33</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -883,6 +930,9 @@
       <c r="H16" t="n">
         <v>14870.92</v>
       </c>
+      <c r="I16" t="n">
+        <v>14863.62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -911,6 +961,9 @@
       <c r="H17" t="n">
         <v>643550.45</v>
       </c>
+      <c r="I17" t="n">
+        <v>643415.09</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -939,6 +992,9 @@
       <c r="H18" t="n">
         <v>153253.26</v>
       </c>
+      <c r="I18" t="n">
+        <v>153277.96</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -967,6 +1023,9 @@
       <c r="H19" t="n">
         <v>435920.96</v>
       </c>
+      <c r="I19" t="n">
+        <v>435829.94</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -995,6 +1054,9 @@
       <c r="H20" t="n">
         <v>2786874.85</v>
       </c>
+      <c r="I20" t="n">
+        <v>2757036.32</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1022,6 +1084,9 @@
       </c>
       <c r="H21" t="n">
         <v>17524.76</v>
+      </c>
+      <c r="I21" t="n">
+        <v>17515.07</v>
       </c>
     </row>
     <row r="22">
@@ -1049,6 +1114,9 @@
       <c r="H22" t="n">
         <v>1492528.47</v>
       </c>
+      <c r="I22" t="n">
+        <v>1492214.14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1075,6 +1143,9 @@
       <c r="H23" t="n">
         <v>627584.9300000001</v>
       </c>
+      <c r="I23" t="n">
+        <v>627626.8100000001</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1101,6 +1172,9 @@
       <c r="H24" t="n">
         <v>151538.17</v>
       </c>
+      <c r="I24" t="n">
+        <v>151604.57</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1127,6 +1201,9 @@
       <c r="H25" t="n">
         <v>6903.92</v>
       </c>
+      <c r="I25" t="n">
+        <v>6906.81</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1153,6 +1230,9 @@
       <c r="H26" t="n">
         <v>6247.49</v>
       </c>
+      <c r="I26" t="n">
+        <v>6248.76</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1179,6 +1259,9 @@
       <c r="H27" t="n">
         <v>705888.6899999999</v>
       </c>
+      <c r="I27" t="n">
+        <v>705435.47</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1205,6 +1288,9 @@
       <c r="H28" t="n">
         <v>1013891.46</v>
       </c>
+      <c r="I28" t="n">
+        <v>1013598.47</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1231,6 +1317,9 @@
       <c r="H29" t="n">
         <v>287250.4</v>
       </c>
+      <c r="I29" t="n">
+        <v>287027.31</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1257,6 +1346,9 @@
       <c r="H30" t="n">
         <v>711173.26</v>
       </c>
+      <c r="I30" t="n">
+        <v>686847.39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1283,6 +1375,9 @@
       <c r="H31" t="n">
         <v>649685.87</v>
       </c>
+      <c r="I31" t="n">
+        <v>649741.05</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1309,6 +1404,9 @@
       <c r="H32" t="n">
         <v>1068100.63</v>
       </c>
+      <c r="I32" t="n">
+        <v>1057203.84</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1337,6 +1435,9 @@
       <c r="H33" t="n">
         <v>711196.79</v>
       </c>
+      <c r="I33" t="n">
+        <v>710690.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1365,6 +1466,9 @@
       <c r="H34" t="n">
         <v>347792.69</v>
       </c>
+      <c r="I34" t="n">
+        <v>347867.91</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1393,6 +1497,9 @@
       <c r="H35" t="n">
         <v>3800336.57</v>
       </c>
+      <c r="I35" t="n">
+        <v>3800094.04</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1421,6 +1528,9 @@
       <c r="H36" t="n">
         <v>85492.27</v>
       </c>
+      <c r="I36" t="n">
+        <v>85463.21000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1449,6 +1559,9 @@
       <c r="H37" t="n">
         <v>20701.82</v>
       </c>
+      <c r="I37" t="n">
+        <v>20703.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1477,6 +1590,9 @@
       <c r="H38" t="n">
         <v>390619.31</v>
       </c>
+      <c r="I38" t="n">
+        <v>342489.03</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1505,6 +1621,9 @@
       <c r="H39" t="n">
         <v>618233.86</v>
       </c>
+      <c r="I39" t="n">
+        <v>603348.1899999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1533,6 +1652,9 @@
       <c r="H40" t="n">
         <v>209802.13</v>
       </c>
+      <c r="I40" t="n">
+        <v>209779.86</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1561,6 +1683,9 @@
       <c r="H41" t="n">
         <v>20522.96</v>
       </c>
+      <c r="I41" t="n">
+        <v>20511.58</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1589,6 +1714,9 @@
       <c r="H42" t="n">
         <v>143985.93</v>
       </c>
+      <c r="I42" t="n">
+        <v>148050.46</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1617,6 +1745,9 @@
       <c r="H43" t="n">
         <v>155880.71</v>
       </c>
+      <c r="I43" t="n">
+        <v>155921.44</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1644,6 +1775,9 @@
       </c>
       <c r="H44" t="n">
         <v>116280.66</v>
+      </c>
+      <c r="I44" t="n">
+        <v>116331.59</v>
       </c>
     </row>
     <row r="45">
@@ -1671,6 +1805,9 @@
       <c r="H45" t="n">
         <v>295457.68</v>
       </c>
+      <c r="I45" t="n">
+        <v>295636.62</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1699,6 +1836,9 @@
       <c r="H46" t="n">
         <v>512694.1</v>
       </c>
+      <c r="I46" t="n">
+        <v>512617.63</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1727,6 +1867,9 @@
       <c r="H47" t="n">
         <v>212651.24</v>
       </c>
+      <c r="I47" t="n">
+        <v>202657.67</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1755,6 +1898,9 @@
       <c r="H48" t="n">
         <v>377168.57</v>
       </c>
+      <c r="I48" t="n">
+        <v>377027.16</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1783,6 +1929,9 @@
       <c r="H49" t="n">
         <v>259117.3</v>
       </c>
+      <c r="I49" t="n">
+        <v>258994.23</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1811,6 +1960,9 @@
       <c r="H50" t="n">
         <v>1338482.54</v>
       </c>
+      <c r="I50" t="n">
+        <v>1338322.12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1838,6 +1990,9 @@
       </c>
       <c r="H51" t="n">
         <v>2788795.91</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2764255.63</v>
       </c>
     </row>
     <row r="52">
@@ -1859,6 +2014,7 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1887,6 +2043,9 @@
       <c r="H53" t="n">
         <v>1218305.75</v>
       </c>
+      <c r="I53" t="n">
+        <v>1319470.49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1915,6 +2074,9 @@
       <c r="H54" t="n">
         <v>264978.08</v>
       </c>
+      <c r="I54" t="n">
+        <v>265016.38</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1942,6 +2104,9 @@
       </c>
       <c r="H55" t="n">
         <v>179286.51</v>
+      </c>
+      <c r="I55" t="n">
+        <v>179185.61</v>
       </c>
     </row>
     <row r="56">
@@ -1963,6 +2128,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1991,6 +2157,9 @@
       <c r="H57" t="n">
         <v>598775.2</v>
       </c>
+      <c r="I57" t="n">
+        <v>594837.62</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2018,6 +2187,9 @@
       </c>
       <c r="H58" t="n">
         <v>31735085.68</v>
+      </c>
+      <c r="I58" t="n">
+        <v>31526393.63</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>412652.61</v>
       </c>
+      <c r="J2" t="n">
+        <v>391732.36</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>850744.33</v>
       </c>
+      <c r="J3" t="n">
+        <v>861052.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -566,6 +577,9 @@
       </c>
       <c r="I4" t="n">
         <v>148449.15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>149868.16</v>
       </c>
     </row>
     <row r="5">
@@ -592,6 +606,9 @@
       <c r="I5" t="n">
         <v>284891.8</v>
       </c>
+      <c r="J5" t="n">
+        <v>289020.82</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -623,6 +640,9 @@
       <c r="I6" t="n">
         <v>183444.34</v>
       </c>
+      <c r="J6" t="n">
+        <v>183372.63</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -654,6 +674,9 @@
       <c r="I7" t="n">
         <v>326012.84</v>
       </c>
+      <c r="J7" t="n">
+        <v>326155.28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -685,6 +708,9 @@
       <c r="I8" t="n">
         <v>114.04</v>
       </c>
+      <c r="J8" t="n">
+        <v>112.84</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -716,6 +742,9 @@
       <c r="I9" t="n">
         <v>943606.22</v>
       </c>
+      <c r="J9" t="n">
+        <v>911869.8100000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -747,6 +776,9 @@
       <c r="I10" t="n">
         <v>660607.4300000001</v>
       </c>
+      <c r="J10" t="n">
+        <v>660581.54</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -778,6 +810,9 @@
       <c r="I11" t="n">
         <v>430844.21</v>
       </c>
+      <c r="J11" t="n">
+        <v>430768.61</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -809,6 +844,9 @@
       <c r="I12" t="n">
         <v>7595.12</v>
       </c>
+      <c r="J12" t="n">
+        <v>7615.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -840,6 +878,9 @@
       <c r="I13" t="n">
         <v>2449456.68</v>
       </c>
+      <c r="J13" t="n">
+        <v>2450864.09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -871,6 +912,9 @@
       <c r="I14" t="n">
         <v>39116.01</v>
       </c>
+      <c r="J14" t="n">
+        <v>39067.59</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -902,6 +946,9 @@
       <c r="I15" t="n">
         <v>8031.33</v>
       </c>
+      <c r="J15" t="n">
+        <v>8030.13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -933,6 +980,9 @@
       <c r="I16" t="n">
         <v>14863.62</v>
       </c>
+      <c r="J16" t="n">
+        <v>14890.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -964,6 +1014,9 @@
       <c r="I17" t="n">
         <v>643415.09</v>
       </c>
+      <c r="J17" t="n">
+        <v>643100.42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -995,6 +1048,9 @@
       <c r="I18" t="n">
         <v>153277.96</v>
       </c>
+      <c r="J18" t="n">
+        <v>153308.8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1026,6 +1082,9 @@
       <c r="I19" t="n">
         <v>435829.94</v>
       </c>
+      <c r="J19" t="n">
+        <v>435692.77</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1057,6 +1116,9 @@
       <c r="I20" t="n">
         <v>2757036.32</v>
       </c>
+      <c r="J20" t="n">
+        <v>2716074.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1087,6 +1149,9 @@
       </c>
       <c r="I21" t="n">
         <v>17515.07</v>
+      </c>
+      <c r="J21" t="n">
+        <v>17525.07</v>
       </c>
     </row>
     <row r="22">
@@ -1117,6 +1182,9 @@
       <c r="I22" t="n">
         <v>1492214.14</v>
       </c>
+      <c r="J22" t="n">
+        <v>1472918.01</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1146,6 +1214,9 @@
       <c r="I23" t="n">
         <v>627626.8100000001</v>
       </c>
+      <c r="J23" t="n">
+        <v>627532.85</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1175,6 +1246,9 @@
       <c r="I24" t="n">
         <v>151604.57</v>
       </c>
+      <c r="J24" t="n">
+        <v>151672.39</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1204,6 +1278,9 @@
       <c r="I25" t="n">
         <v>6906.81</v>
       </c>
+      <c r="J25" t="n">
+        <v>6908.38</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1233,6 +1310,9 @@
       <c r="I26" t="n">
         <v>6248.76</v>
       </c>
+      <c r="J26" t="n">
+        <v>6258.77</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1262,6 +1342,9 @@
       <c r="I27" t="n">
         <v>705435.47</v>
       </c>
+      <c r="J27" t="n">
+        <v>705546.4399999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1291,6 +1374,9 @@
       <c r="I28" t="n">
         <v>1013598.47</v>
       </c>
+      <c r="J28" t="n">
+        <v>1013057.85</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1320,6 +1406,9 @@
       <c r="I29" t="n">
         <v>287027.31</v>
       </c>
+      <c r="J29" t="n">
+        <v>287388.1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1349,6 +1438,9 @@
       <c r="I30" t="n">
         <v>686847.39</v>
       </c>
+      <c r="J30" t="n">
+        <v>679468.98</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1378,6 +1470,9 @@
       <c r="I31" t="n">
         <v>649741.05</v>
       </c>
+      <c r="J31" t="n">
+        <v>634694.8100000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1407,6 +1502,9 @@
       <c r="I32" t="n">
         <v>1057203.84</v>
       </c>
+      <c r="J32" t="n">
+        <v>1031539.19</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1438,6 +1536,9 @@
       <c r="I33" t="n">
         <v>710690.1</v>
       </c>
+      <c r="J33" t="n">
+        <v>711297.55</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1469,6 +1570,9 @@
       <c r="I34" t="n">
         <v>347867.91</v>
       </c>
+      <c r="J34" t="n">
+        <v>347807.59</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1500,6 +1604,9 @@
       <c r="I35" t="n">
         <v>3800094.04</v>
       </c>
+      <c r="J35" t="n">
+        <v>3798763.38</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1531,6 +1638,9 @@
       <c r="I36" t="n">
         <v>85463.21000000001</v>
       </c>
+      <c r="J36" t="n">
+        <v>85487.35000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1562,6 +1672,9 @@
       <c r="I37" t="n">
         <v>20703.95</v>
       </c>
+      <c r="J37" t="n">
+        <v>20686.17</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1593,6 +1706,9 @@
       <c r="I38" t="n">
         <v>342489.03</v>
       </c>
+      <c r="J38" t="n">
+        <v>332454.82</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1624,6 +1740,9 @@
       <c r="I39" t="n">
         <v>603348.1899999999</v>
       </c>
+      <c r="J39" t="n">
+        <v>577933.14</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1655,6 +1774,9 @@
       <c r="I40" t="n">
         <v>209779.86</v>
       </c>
+      <c r="J40" t="n">
+        <v>209783.39</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1686,6 +1808,9 @@
       <c r="I41" t="n">
         <v>20511.58</v>
       </c>
+      <c r="J41" t="n">
+        <v>20524.04</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1717,6 +1842,9 @@
       <c r="I42" t="n">
         <v>148050.46</v>
       </c>
+      <c r="J42" t="n">
+        <v>149932.79</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1748,6 +1876,9 @@
       <c r="I43" t="n">
         <v>155921.44</v>
       </c>
+      <c r="J43" t="n">
+        <v>155832.87</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1778,6 +1909,9 @@
       </c>
       <c r="I44" t="n">
         <v>116331.59</v>
+      </c>
+      <c r="J44" t="n">
+        <v>116312.15</v>
       </c>
     </row>
     <row r="45">
@@ -1808,6 +1942,9 @@
       <c r="I45" t="n">
         <v>295636.62</v>
       </c>
+      <c r="J45" t="n">
+        <v>295618.98</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1839,6 +1976,9 @@
       <c r="I46" t="n">
         <v>512617.63</v>
       </c>
+      <c r="J46" t="n">
+        <v>512729.59</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1870,6 +2010,9 @@
       <c r="I47" t="n">
         <v>202657.67</v>
       </c>
+      <c r="J47" t="n">
+        <v>217621.51</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1901,6 +2044,9 @@
       <c r="I48" t="n">
         <v>377027.16</v>
       </c>
+      <c r="J48" t="n">
+        <v>377007.84</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1932,6 +2078,9 @@
       <c r="I49" t="n">
         <v>258994.23</v>
       </c>
+      <c r="J49" t="n">
+        <v>258992.22</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1963,6 +2112,9 @@
       <c r="I50" t="n">
         <v>1338322.12</v>
       </c>
+      <c r="J50" t="n">
+        <v>1338871.55</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1993,6 +2145,9 @@
       </c>
       <c r="I51" t="n">
         <v>2764255.63</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2646589.03</v>
       </c>
     </row>
     <row r="52">
@@ -2015,6 +2170,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2046,6 +2202,9 @@
       <c r="I53" t="n">
         <v>1319470.49</v>
       </c>
+      <c r="J53" t="n">
+        <v>1382507.41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2077,6 +2236,9 @@
       <c r="I54" t="n">
         <v>265016.38</v>
       </c>
+      <c r="J54" t="n">
+        <v>265182.97</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2107,6 +2269,9 @@
       </c>
       <c r="I55" t="n">
         <v>179185.61</v>
+      </c>
+      <c r="J55" t="n">
+        <v>179205.8</v>
       </c>
     </row>
     <row r="56">
@@ -2129,6 +2294,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2160,6 +2326,9 @@
       <c r="I57" t="n">
         <v>594837.62</v>
       </c>
+      <c r="J57" t="n">
+        <v>590732.66</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2190,6 +2359,9 @@
       </c>
       <c r="I58" t="n">
         <v>31526393.63</v>
+      </c>
+      <c r="J58" t="n">
+        <v>31308831.08</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>391732.36</v>
       </c>
+      <c r="K2" t="n">
+        <v>371321.38</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>861052.8</v>
       </c>
+      <c r="K3" t="n">
+        <v>851655.38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -580,6 +591,9 @@
       </c>
       <c r="J4" t="n">
         <v>149868.16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>148435.69</v>
       </c>
     </row>
     <row r="5">
@@ -609,6 +623,9 @@
       <c r="J5" t="n">
         <v>289020.82</v>
       </c>
+      <c r="K5" t="n">
+        <v>310831.72</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -643,6 +660,9 @@
       <c r="J6" t="n">
         <v>183372.63</v>
       </c>
+      <c r="K6" t="n">
+        <v>185460.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -677,6 +697,9 @@
       <c r="J7" t="n">
         <v>326155.28</v>
       </c>
+      <c r="K7" t="n">
+        <v>325770.32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -711,6 +734,9 @@
       <c r="J8" t="n">
         <v>112.84</v>
       </c>
+      <c r="K8" t="n">
+        <v>106.81</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -745,6 +771,9 @@
       <c r="J9" t="n">
         <v>911869.8100000001</v>
       </c>
+      <c r="K9" t="n">
+        <v>872623.8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -779,6 +808,9 @@
       <c r="J10" t="n">
         <v>660581.54</v>
       </c>
+      <c r="K10" t="n">
+        <v>660511.6899999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -813,6 +845,9 @@
       <c r="J11" t="n">
         <v>430768.61</v>
       </c>
+      <c r="K11" t="n">
+        <v>430703.45</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -847,6 +882,9 @@
       <c r="J12" t="n">
         <v>7615.1</v>
       </c>
+      <c r="K12" t="n">
+        <v>7619.28</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -881,6 +919,9 @@
       <c r="J13" t="n">
         <v>2450864.09</v>
       </c>
+      <c r="K13" t="n">
+        <v>2448109.23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -915,6 +956,9 @@
       <c r="J14" t="n">
         <v>39067.59</v>
       </c>
+      <c r="K14" t="n">
+        <v>4667.03</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -949,6 +993,9 @@
       <c r="J15" t="n">
         <v>8030.13</v>
       </c>
+      <c r="K15" t="n">
+        <v>8033.42</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -983,6 +1030,9 @@
       <c r="J16" t="n">
         <v>14890.3</v>
       </c>
+      <c r="K16" t="n">
+        <v>14865.84</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1017,6 +1067,9 @@
       <c r="J17" t="n">
         <v>643100.42</v>
       </c>
+      <c r="K17" t="n">
+        <v>637138.97</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1051,6 +1104,9 @@
       <c r="J18" t="n">
         <v>153308.8</v>
       </c>
+      <c r="K18" t="n">
+        <v>153257.84</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1085,6 +1141,9 @@
       <c r="J19" t="n">
         <v>435692.77</v>
       </c>
+      <c r="K19" t="n">
+        <v>435856.21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1119,6 +1178,9 @@
       <c r="J20" t="n">
         <v>2716074.05</v>
       </c>
+      <c r="K20" t="n">
+        <v>2699716.28</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1152,6 +1214,9 @@
       </c>
       <c r="J21" t="n">
         <v>17525.07</v>
+      </c>
+      <c r="K21" t="n">
+        <v>17525.36</v>
       </c>
     </row>
     <row r="22">
@@ -1185,6 +1250,9 @@
       <c r="J22" t="n">
         <v>1472918.01</v>
       </c>
+      <c r="K22" t="n">
+        <v>1472761.37</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1217,6 +1285,9 @@
       <c r="J23" t="n">
         <v>627532.85</v>
       </c>
+      <c r="K23" t="n">
+        <v>627578.52</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1249,6 +1320,9 @@
       <c r="J24" t="n">
         <v>151672.39</v>
       </c>
+      <c r="K24" t="n">
+        <v>151534.92</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1281,6 +1355,9 @@
       <c r="J25" t="n">
         <v>6908.38</v>
       </c>
+      <c r="K25" t="n">
+        <v>6911.21</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1313,6 +1390,9 @@
       <c r="J26" t="n">
         <v>6258.77</v>
       </c>
+      <c r="K26" t="n">
+        <v>6250.9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1345,6 +1425,9 @@
       <c r="J27" t="n">
         <v>705546.4399999999</v>
       </c>
+      <c r="K27" t="n">
+        <v>705471.24</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1377,6 +1460,9 @@
       <c r="J28" t="n">
         <v>1013057.85</v>
       </c>
+      <c r="K28" t="n">
+        <v>1013624.09</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1409,6 +1495,9 @@
       <c r="J29" t="n">
         <v>287388.1</v>
       </c>
+      <c r="K29" t="n">
+        <v>286729.99</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1441,6 +1530,9 @@
       <c r="J30" t="n">
         <v>679468.98</v>
       </c>
+      <c r="K30" t="n">
+        <v>659864.39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1473,6 +1565,9 @@
       <c r="J31" t="n">
         <v>634694.8100000001</v>
       </c>
+      <c r="K31" t="n">
+        <v>634165.6800000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1505,6 +1600,9 @@
       <c r="J32" t="n">
         <v>1031539.19</v>
       </c>
+      <c r="K32" t="n">
+        <v>1031153.87</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1539,6 +1637,9 @@
       <c r="J33" t="n">
         <v>711297.55</v>
       </c>
+      <c r="K33" t="n">
+        <v>711194.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1573,6 +1674,9 @@
       <c r="J34" t="n">
         <v>347807.59</v>
       </c>
+      <c r="K34" t="n">
+        <v>347873.96</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1607,6 +1711,9 @@
       <c r="J35" t="n">
         <v>3798763.38</v>
       </c>
+      <c r="K35" t="n">
+        <v>3800435.33</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1641,6 +1748,9 @@
       <c r="J36" t="n">
         <v>85487.35000000001</v>
       </c>
+      <c r="K36" t="n">
+        <v>85466.05</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1675,6 +1785,9 @@
       <c r="J37" t="n">
         <v>20686.17</v>
       </c>
+      <c r="K37" t="n">
+        <v>20690.4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1709,6 +1822,9 @@
       <c r="J38" t="n">
         <v>332454.82</v>
       </c>
+      <c r="K38" t="n">
+        <v>322552.69</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1743,6 +1859,9 @@
       <c r="J39" t="n">
         <v>577933.14</v>
       </c>
+      <c r="K39" t="n">
+        <v>567828.09</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1777,6 +1896,9 @@
       <c r="J40" t="n">
         <v>209783.39</v>
       </c>
+      <c r="K40" t="n">
+        <v>209753.29</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1811,6 +1933,9 @@
       <c r="J41" t="n">
         <v>20524.04</v>
       </c>
+      <c r="K41" t="n">
+        <v>20523.77</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1845,6 +1970,9 @@
       <c r="J42" t="n">
         <v>149932.79</v>
       </c>
+      <c r="K42" t="n">
+        <v>141494.52</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1879,6 +2007,9 @@
       <c r="J43" t="n">
         <v>155832.87</v>
       </c>
+      <c r="K43" t="n">
+        <v>155938.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1912,6 +2043,9 @@
       </c>
       <c r="J44" t="n">
         <v>116312.15</v>
+      </c>
+      <c r="K44" t="n">
+        <v>116340.98</v>
       </c>
     </row>
     <row r="45">
@@ -1945,6 +2079,9 @@
       <c r="J45" t="n">
         <v>295618.98</v>
       </c>
+      <c r="K45" t="n">
+        <v>295434.8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1979,6 +2116,9 @@
       <c r="J46" t="n">
         <v>512729.59</v>
       </c>
+      <c r="K46" t="n">
+        <v>512588.08</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2013,6 +2153,9 @@
       <c r="J47" t="n">
         <v>217621.51</v>
       </c>
+      <c r="K47" t="n">
+        <v>195547.02</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2047,6 +2190,9 @@
       <c r="J48" t="n">
         <v>377007.84</v>
       </c>
+      <c r="K48" t="n">
+        <v>376958.48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2081,6 +2227,9 @@
       <c r="J49" t="n">
         <v>258992.22</v>
       </c>
+      <c r="K49" t="n">
+        <v>259064.57</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2115,6 +2264,9 @@
       <c r="J50" t="n">
         <v>1338871.55</v>
       </c>
+      <c r="K50" t="n">
+        <v>1338273.37</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2148,6 +2300,9 @@
       </c>
       <c r="J51" t="n">
         <v>2646589.03</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2646042.56</v>
       </c>
     </row>
     <row r="52">
@@ -2171,6 +2326,7 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2205,6 +2361,9 @@
       <c r="J53" t="n">
         <v>1382507.41</v>
       </c>
+      <c r="K53" t="n">
+        <v>1380766.51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2239,6 +2398,9 @@
       <c r="J54" t="n">
         <v>265182.97</v>
       </c>
+      <c r="K54" t="n">
+        <v>265175.33</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2272,6 +2434,9 @@
       </c>
       <c r="J55" t="n">
         <v>179205.8</v>
+      </c>
+      <c r="K55" t="n">
+        <v>179239.03</v>
       </c>
     </row>
     <row r="56">
@@ -2295,6 +2460,7 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2329,6 +2495,9 @@
       <c r="J57" t="n">
         <v>590732.66</v>
       </c>
+      <c r="K57" t="n">
+        <v>587347.89</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2362,6 +2531,9 @@
       </c>
       <c r="J58" t="n">
         <v>31308831.08</v>
+      </c>
+      <c r="K58" t="n">
+        <v>31129438.21</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>371321.38</v>
       </c>
+      <c r="L2" t="n">
+        <v>348225.65</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>851655.38</v>
       </c>
+      <c r="L3" t="n">
+        <v>851944.45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -594,6 +605,9 @@
       </c>
       <c r="K4" t="n">
         <v>148435.69</v>
+      </c>
+      <c r="L4" t="n">
+        <v>148429.94</v>
       </c>
     </row>
     <row r="5">
@@ -626,6 +640,9 @@
       <c r="K5" t="n">
         <v>310831.72</v>
       </c>
+      <c r="L5" t="n">
+        <v>330826.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -663,6 +680,9 @@
       <c r="K6" t="n">
         <v>185460.5</v>
       </c>
+      <c r="L6" t="n">
+        <v>185490.68</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -700,6 +720,9 @@
       <c r="K7" t="n">
         <v>325770.32</v>
       </c>
+      <c r="L7" t="n">
+        <v>259968.35</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -737,6 +760,9 @@
       <c r="K8" t="n">
         <v>106.81</v>
       </c>
+      <c r="L8" t="n">
+        <v>107.28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -774,6 +800,9 @@
       <c r="K9" t="n">
         <v>872623.8</v>
       </c>
+      <c r="L9" t="n">
+        <v>871838.8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -811,6 +840,9 @@
       <c r="K10" t="n">
         <v>660511.6899999999</v>
       </c>
+      <c r="L10" t="n">
+        <v>660546.01</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -848,6 +880,9 @@
       <c r="K11" t="n">
         <v>430703.45</v>
       </c>
+      <c r="L11" t="n">
+        <v>430829.54</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -885,6 +920,9 @@
       <c r="K12" t="n">
         <v>7619.28</v>
       </c>
+      <c r="L12" t="n">
+        <v>7638.54</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -922,6 +960,9 @@
       <c r="K13" t="n">
         <v>2448109.23</v>
       </c>
+      <c r="L13" t="n">
+        <v>2448611.77</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -959,6 +1000,9 @@
       <c r="K14" t="n">
         <v>4667.03</v>
       </c>
+      <c r="L14" t="n">
+        <v>4670.08</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -996,6 +1040,9 @@
       <c r="K15" t="n">
         <v>8033.42</v>
       </c>
+      <c r="L15" t="n">
+        <v>8028.8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1033,6 +1080,9 @@
       <c r="K16" t="n">
         <v>14865.84</v>
       </c>
+      <c r="L16" t="n">
+        <v>14866.39</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1070,6 +1120,9 @@
       <c r="K17" t="n">
         <v>637138.97</v>
       </c>
+      <c r="L17" t="n">
+        <v>613530.96</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1107,6 +1160,9 @@
       <c r="K18" t="n">
         <v>153257.84</v>
       </c>
+      <c r="L18" t="n">
+        <v>146470.24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1144,6 +1200,9 @@
       <c r="K19" t="n">
         <v>435856.21</v>
       </c>
+      <c r="L19" t="n">
+        <v>435694.56</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1181,6 +1240,9 @@
       <c r="K20" t="n">
         <v>2699716.28</v>
       </c>
+      <c r="L20" t="n">
+        <v>2692524.46</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1217,6 +1279,9 @@
       </c>
       <c r="K21" t="n">
         <v>17525.36</v>
+      </c>
+      <c r="L21" t="n">
+        <v>17522.46</v>
       </c>
     </row>
     <row r="22">
@@ -1253,6 +1318,9 @@
       <c r="K22" t="n">
         <v>1472761.37</v>
       </c>
+      <c r="L22" t="n">
+        <v>1472620.17</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1288,6 +1356,9 @@
       <c r="K23" t="n">
         <v>627578.52</v>
       </c>
+      <c r="L23" t="n">
+        <v>627767.3199999999</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1323,6 +1394,9 @@
       <c r="K24" t="n">
         <v>151534.92</v>
       </c>
+      <c r="L24" t="n">
+        <v>151676.37</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1358,6 +1432,9 @@
       <c r="K25" t="n">
         <v>6911.21</v>
       </c>
+      <c r="L25" t="n">
+        <v>6909.77</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1393,6 +1470,9 @@
       <c r="K26" t="n">
         <v>6250.9</v>
       </c>
+      <c r="L26" t="n">
+        <v>6244.11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1428,6 +1508,9 @@
       <c r="K27" t="n">
         <v>705471.24</v>
       </c>
+      <c r="L27" t="n">
+        <v>682699.79</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1463,6 +1546,9 @@
       <c r="K28" t="n">
         <v>1013624.09</v>
       </c>
+      <c r="L28" t="n">
+        <v>1013829.72</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1498,6 +1584,9 @@
       <c r="K29" t="n">
         <v>286729.99</v>
       </c>
+      <c r="L29" t="n">
+        <v>286712.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1533,6 +1622,9 @@
       <c r="K30" t="n">
         <v>659864.39</v>
       </c>
+      <c r="L30" t="n">
+        <v>651959.03</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1568,6 +1660,9 @@
       <c r="K31" t="n">
         <v>634165.6800000001</v>
       </c>
+      <c r="L31" t="n">
+        <v>613174.39</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1603,6 +1698,9 @@
       <c r="K32" t="n">
         <v>1031153.87</v>
       </c>
+      <c r="L32" t="n">
+        <v>1008188.12</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1640,6 +1738,9 @@
       <c r="K33" t="n">
         <v>711194.5</v>
       </c>
+      <c r="L33" t="n">
+        <v>710675.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1677,6 +1778,9 @@
       <c r="K34" t="n">
         <v>347873.96</v>
       </c>
+      <c r="L34" t="n">
+        <v>347813.35</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1714,6 +1818,9 @@
       <c r="K35" t="n">
         <v>3800435.33</v>
       </c>
+      <c r="L35" t="n">
+        <v>3800854.78</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1751,6 +1858,9 @@
       <c r="K36" t="n">
         <v>85466.05</v>
       </c>
+      <c r="L36" t="n">
+        <v>85448.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1788,6 +1898,9 @@
       <c r="K37" t="n">
         <v>20690.4</v>
       </c>
+      <c r="L37" t="n">
+        <v>20686.63</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1825,6 +1938,9 @@
       <c r="K38" t="n">
         <v>322552.69</v>
       </c>
+      <c r="L38" t="n">
+        <v>302491.15</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1862,6 +1978,9 @@
       <c r="K39" t="n">
         <v>567828.09</v>
       </c>
+      <c r="L39" t="n">
+        <v>537678.86</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1899,6 +2018,9 @@
       <c r="K40" t="n">
         <v>209753.29</v>
       </c>
+      <c r="L40" t="n">
+        <v>208215.4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1936,6 +2058,9 @@
       <c r="K41" t="n">
         <v>20523.77</v>
       </c>
+      <c r="L41" t="n">
+        <v>20526.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1973,6 +2098,9 @@
       <c r="K42" t="n">
         <v>141494.52</v>
       </c>
+      <c r="L42" t="n">
+        <v>137849.05</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2010,6 +2138,9 @@
       <c r="K43" t="n">
         <v>155938.5</v>
       </c>
+      <c r="L43" t="n">
+        <v>155865.64</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2046,6 +2177,9 @@
       </c>
       <c r="K44" t="n">
         <v>116340.98</v>
+      </c>
+      <c r="L44" t="n">
+        <v>116340.34</v>
       </c>
     </row>
     <row r="45">
@@ -2082,6 +2216,9 @@
       <c r="K45" t="n">
         <v>295434.8</v>
       </c>
+      <c r="L45" t="n">
+        <v>295460.66</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2119,6 +2256,9 @@
       <c r="K46" t="n">
         <v>512588.08</v>
       </c>
+      <c r="L46" t="n">
+        <v>512467.23</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2156,6 +2296,9 @@
       <c r="K47" t="n">
         <v>195547.02</v>
       </c>
+      <c r="L47" t="n">
+        <v>209605.38</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2193,6 +2336,9 @@
       <c r="K48" t="n">
         <v>376958.48</v>
       </c>
+      <c r="L48" t="n">
+        <v>377234.93</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2230,6 +2376,9 @@
       <c r="K49" t="n">
         <v>259064.57</v>
       </c>
+      <c r="L49" t="n">
+        <v>259191.24</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2267,6 +2416,9 @@
       <c r="K50" t="n">
         <v>1338273.37</v>
       </c>
+      <c r="L50" t="n">
+        <v>1280358.26</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2303,6 +2455,9 @@
       </c>
       <c r="K51" t="n">
         <v>2646042.56</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2646418.55</v>
       </c>
     </row>
     <row r="52">
@@ -2327,6 +2482,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2364,6 +2520,9 @@
       <c r="K53" t="n">
         <v>1380766.51</v>
       </c>
+      <c r="L53" t="n">
+        <v>1382264.96</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2401,6 +2560,9 @@
       <c r="K54" t="n">
         <v>265175.33</v>
       </c>
+      <c r="L54" t="n">
+        <v>265123.83</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2437,6 +2599,9 @@
       </c>
       <c r="K55" t="n">
         <v>179239.03</v>
+      </c>
+      <c r="L55" t="n">
+        <v>190179.33</v>
       </c>
     </row>
     <row r="56">
@@ -2461,6 +2626,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2498,6 +2664,9 @@
       <c r="K57" t="n">
         <v>587347.89</v>
       </c>
+      <c r="L57" t="n">
+        <v>582307.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2534,6 +2703,9 @@
       </c>
       <c r="K58" t="n">
         <v>31129438.21</v>
+      </c>
+      <c r="L58" t="n">
+        <v>30862297.32</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>348225.65</v>
       </c>
+      <c r="M2" t="n">
+        <v>326571.33</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>851944.45</v>
       </c>
+      <c r="M3" t="n">
+        <v>891808.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -608,6 +619,9 @@
       </c>
       <c r="L4" t="n">
         <v>148429.94</v>
+      </c>
+      <c r="M4" t="n">
+        <v>148460.34</v>
       </c>
     </row>
     <row r="5">
@@ -643,6 +657,9 @@
       <c r="L5" t="n">
         <v>330826.5</v>
       </c>
+      <c r="M5" t="n">
+        <v>336191.51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -683,6 +700,9 @@
       <c r="L6" t="n">
         <v>185490.68</v>
       </c>
+      <c r="M6" t="n">
+        <v>185469.78</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,6 +743,9 @@
       <c r="L7" t="n">
         <v>259968.35</v>
       </c>
+      <c r="M7" t="n">
+        <v>259991.28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -763,6 +786,9 @@
       <c r="L8" t="n">
         <v>107.28</v>
       </c>
+      <c r="M8" t="n">
+        <v>106.59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -803,6 +829,9 @@
       <c r="L9" t="n">
         <v>871838.8</v>
       </c>
+      <c r="M9" t="n">
+        <v>807649.05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -843,6 +872,9 @@
       <c r="L10" t="n">
         <v>660546.01</v>
       </c>
+      <c r="M10" t="n">
+        <v>660488.37</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -883,6 +915,9 @@
       <c r="L11" t="n">
         <v>430829.54</v>
       </c>
+      <c r="M11" t="n">
+        <v>358659.32</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -923,6 +958,9 @@
       <c r="L12" t="n">
         <v>7638.54</v>
       </c>
+      <c r="M12" t="n">
+        <v>7600.44</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -963,6 +1001,9 @@
       <c r="L13" t="n">
         <v>2448611.77</v>
       </c>
+      <c r="M13" t="n">
+        <v>2450887.05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1003,6 +1044,9 @@
       <c r="L14" t="n">
         <v>4670.08</v>
       </c>
+      <c r="M14" t="n">
+        <v>4667.55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1043,6 +1087,9 @@
       <c r="L15" t="n">
         <v>8028.8</v>
       </c>
+      <c r="M15" t="n">
+        <v>8032.98</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1083,6 +1130,9 @@
       <c r="L16" t="n">
         <v>14866.39</v>
       </c>
+      <c r="M16" t="n">
+        <v>14868.43</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1123,6 +1173,9 @@
       <c r="L17" t="n">
         <v>613530.96</v>
       </c>
+      <c r="M17" t="n">
+        <v>613580.42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1163,6 +1216,9 @@
       <c r="L18" t="n">
         <v>146470.24</v>
       </c>
+      <c r="M18" t="n">
+        <v>146357.27</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1203,6 +1259,9 @@
       <c r="L19" t="n">
         <v>435694.56</v>
       </c>
+      <c r="M19" t="n">
+        <v>435678.57</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1243,6 +1302,9 @@
       <c r="L20" t="n">
         <v>2692524.46</v>
       </c>
+      <c r="M20" t="n">
+        <v>2665148.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1282,6 +1344,9 @@
       </c>
       <c r="L21" t="n">
         <v>17522.46</v>
+      </c>
+      <c r="M21" t="n">
+        <v>17518.19</v>
       </c>
     </row>
     <row r="22">
@@ -1321,6 +1386,9 @@
       <c r="L22" t="n">
         <v>1472620.17</v>
       </c>
+      <c r="M22" t="n">
+        <v>1472864.02</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1359,6 +1427,9 @@
       <c r="L23" t="n">
         <v>627767.3199999999</v>
       </c>
+      <c r="M23" t="n">
+        <v>627872.03</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1397,6 +1468,9 @@
       <c r="L24" t="n">
         <v>151676.37</v>
       </c>
+      <c r="M24" t="n">
+        <v>151694.65</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1435,6 +1509,9 @@
       <c r="L25" t="n">
         <v>6909.77</v>
       </c>
+      <c r="M25" t="n">
+        <v>6907.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1473,6 +1550,9 @@
       <c r="L26" t="n">
         <v>6244.11</v>
       </c>
+      <c r="M26" t="n">
+        <v>6244.09</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1511,6 +1591,9 @@
       <c r="L27" t="n">
         <v>682699.79</v>
       </c>
+      <c r="M27" t="n">
+        <v>682475.49</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1549,6 +1632,9 @@
       <c r="L28" t="n">
         <v>1013829.72</v>
       </c>
+      <c r="M28" t="n">
+        <v>1013276.58</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1587,6 +1673,9 @@
       <c r="L29" t="n">
         <v>286712.95</v>
       </c>
+      <c r="M29" t="n">
+        <v>287429.64</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1625,6 +1714,9 @@
       <c r="L30" t="n">
         <v>651959.03</v>
       </c>
+      <c r="M30" t="n">
+        <v>652194.34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1663,6 +1755,9 @@
       <c r="L31" t="n">
         <v>613174.39</v>
       </c>
+      <c r="M31" t="n">
+        <v>613243.8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1701,6 +1796,9 @@
       <c r="L32" t="n">
         <v>1008188.12</v>
       </c>
+      <c r="M32" t="n">
+        <v>983822.7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1741,6 +1839,9 @@
       <c r="L33" t="n">
         <v>710675.75</v>
       </c>
+      <c r="M33" t="n">
+        <v>714232.8199999999</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1781,6 +1882,9 @@
       <c r="L34" t="n">
         <v>347813.35</v>
       </c>
+      <c r="M34" t="n">
+        <v>347828.43</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1821,6 +1925,9 @@
       <c r="L35" t="n">
         <v>3800854.78</v>
       </c>
+      <c r="M35" t="n">
+        <v>3800940.53</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1861,6 +1968,9 @@
       <c r="L36" t="n">
         <v>85448.3</v>
       </c>
+      <c r="M36" t="n">
+        <v>85409.82000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1901,6 +2011,9 @@
       <c r="L37" t="n">
         <v>20686.63</v>
       </c>
+      <c r="M37" t="n">
+        <v>20709.15</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1941,6 +2054,9 @@
       <c r="L38" t="n">
         <v>302491.15</v>
       </c>
+      <c r="M38" t="n">
+        <v>302551.86</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1981,6 +2097,9 @@
       <c r="L39" t="n">
         <v>537678.86</v>
       </c>
+      <c r="M39" t="n">
+        <v>532572.6800000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2021,6 +2140,9 @@
       <c r="L40" t="n">
         <v>208215.4</v>
       </c>
+      <c r="M40" t="n">
+        <v>183533.31</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2061,6 +2183,9 @@
       <c r="L41" t="n">
         <v>20526.5</v>
       </c>
+      <c r="M41" t="n">
+        <v>20519.43</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2101,6 +2226,9 @@
       <c r="L42" t="n">
         <v>137849.05</v>
       </c>
+      <c r="M42" t="n">
+        <v>138066.45</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2141,6 +2269,9 @@
       <c r="L43" t="n">
         <v>155865.64</v>
       </c>
+      <c r="M43" t="n">
+        <v>155934.97</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2180,6 +2311,9 @@
       </c>
       <c r="L44" t="n">
         <v>116340.34</v>
+      </c>
+      <c r="M44" t="n">
+        <v>116260.67</v>
       </c>
     </row>
     <row r="45">
@@ -2219,6 +2353,9 @@
       <c r="L45" t="n">
         <v>295460.66</v>
       </c>
+      <c r="M45" t="n">
+        <v>284417.62</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2259,6 +2396,9 @@
       <c r="L46" t="n">
         <v>512467.23</v>
       </c>
+      <c r="M46" t="n">
+        <v>512311.78</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2299,6 +2439,9 @@
       <c r="L47" t="n">
         <v>209605.38</v>
       </c>
+      <c r="M47" t="n">
+        <v>203601.97</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2339,6 +2482,9 @@
       <c r="L48" t="n">
         <v>377234.93</v>
       </c>
+      <c r="M48" t="n">
+        <v>377205.33</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2379,6 +2525,9 @@
       <c r="L49" t="n">
         <v>259191.24</v>
       </c>
+      <c r="M49" t="n">
+        <v>251728.53</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2419,6 +2568,9 @@
       <c r="L50" t="n">
         <v>1280358.26</v>
       </c>
+      <c r="M50" t="n">
+        <v>1280109.48</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2458,6 +2610,9 @@
       </c>
       <c r="L51" t="n">
         <v>2646418.55</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2646556.15</v>
       </c>
     </row>
     <row r="52">
@@ -2483,6 +2638,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2523,6 +2679,9 @@
       <c r="L53" t="n">
         <v>1382264.96</v>
       </c>
+      <c r="M53" t="n">
+        <v>1380959.81</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2563,6 +2722,9 @@
       <c r="L54" t="n">
         <v>265123.83</v>
       </c>
+      <c r="M54" t="n">
+        <v>264862.4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2602,6 +2764,9 @@
       </c>
       <c r="L55" t="n">
         <v>190179.33</v>
+      </c>
+      <c r="M55" t="n">
+        <v>190190.79</v>
       </c>
     </row>
     <row r="56">
@@ -2627,6 +2792,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2667,6 +2833,9 @@
       <c r="L57" t="n">
         <v>582307.5</v>
       </c>
+      <c r="M57" t="n">
+        <v>578269.13</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2706,6 +2875,9 @@
       </c>
       <c r="L58" t="n">
         <v>30862297.32</v>
+      </c>
+      <c r="M58" t="n">
+        <v>30648263.95</v>
       </c>
     </row>
   </sheetData>
